--- a/Code/Results/Cases/Case_1_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_53/res_line/pl_mw.xlsx
@@ -418,19 +418,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01035600544625481</v>
+        <v>0.01035600544625126</v>
       </c>
       <c r="E2">
         <v>0.2411179569439881</v>
       </c>
       <c r="F2">
-        <v>1.992106886911927</v>
+        <v>1.992106886911941</v>
       </c>
       <c r="G2">
-        <v>1.565865656995754</v>
+        <v>1.56586565699574</v>
       </c>
       <c r="H2">
-        <v>0.1693541131589602</v>
+        <v>0.1693541131589584</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>2.662164653488659</v>
       </c>
       <c r="K2">
-        <v>0.8574244029331055</v>
+        <v>0.8574244029331339</v>
       </c>
       <c r="L2">
-        <v>1.045402326508416</v>
+        <v>1.045402326508402</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6911156126444951</v>
+        <v>0.6911156126446372</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.009716823416468401</v>
+        <v>0.009716823416379583</v>
       </c>
       <c r="E3">
-        <v>0.2166010485286698</v>
+        <v>0.2166010485286769</v>
       </c>
       <c r="F3">
         <v>1.728407287873836</v>
       </c>
       <c r="G3">
-        <v>1.359791911316563</v>
+        <v>1.359791911316549</v>
       </c>
       <c r="H3">
-        <v>0.1955391414629033</v>
+        <v>0.195539141462886</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>2.302908311907956</v>
+        <v>2.302908311907942</v>
       </c>
       <c r="K3">
-        <v>0.7379077417246549</v>
+        <v>0.7379077417246407</v>
       </c>
       <c r="L3">
-        <v>0.9021739586774018</v>
+        <v>0.9021739586774089</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6266929341642538</v>
+        <v>0.6266929341641685</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.009490897154492473</v>
+        <v>0.009490897154609712</v>
       </c>
       <c r="E4">
-        <v>0.201707323803344</v>
+        <v>0.2017073238033653</v>
       </c>
       <c r="F4">
         <v>1.573196709307638</v>
       </c>
       <c r="G4">
-        <v>1.238863979338873</v>
+        <v>1.238863979338845</v>
       </c>
       <c r="H4">
-        <v>0.2128254419168352</v>
+        <v>0.2128254419168347</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2.084847421418729</v>
+        <v>2.084847421418715</v>
       </c>
       <c r="K4">
-        <v>0.665816114843885</v>
+        <v>0.6658161148438637</v>
       </c>
       <c r="L4">
-        <v>0.8154137435514883</v>
+        <v>0.8154137435514812</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.600509525245343</v>
+        <v>0.6005095252455703</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.009435825409255472</v>
+        <v>0.009435825409141785</v>
       </c>
       <c r="E5">
-        <v>0.1956691877376429</v>
+        <v>0.1956691877376393</v>
       </c>
       <c r="F5">
-        <v>1.511419258144329</v>
+        <v>1.511419258144343</v>
       </c>
       <c r="G5">
         <v>1.190816650791476</v>
       </c>
       <c r="H5">
-        <v>0.2201571293043556</v>
+        <v>0.2201571293043427</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1.996497575019404</v>
+        <v>1.996497575019418</v>
       </c>
       <c r="K5">
         <v>0.6367104516677671</v>
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5961654504512524</v>
+        <v>0.5961654504512239</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009428783025640541</v>
+        <v>0.009428783025526855</v>
       </c>
       <c r="E6">
-        <v>0.1946682021719148</v>
+        <v>0.1946682021719326</v>
       </c>
       <c r="F6">
-        <v>1.501244255035544</v>
+        <v>1.501244255035573</v>
       </c>
       <c r="G6">
         <v>1.182907998722271</v>
       </c>
       <c r="H6">
-        <v>0.2213914516582145</v>
+        <v>0.2213914516582292</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1.981854711946497</v>
+        <v>1.981854711946454</v>
       </c>
       <c r="K6">
-        <v>0.6318924858614139</v>
+        <v>0.6318924858613784</v>
       </c>
       <c r="L6">
-        <v>0.7744894531179014</v>
+        <v>0.7744894531178872</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -608,31 +608,31 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.009490010690715422</v>
+        <v>0.00949001069071187</v>
       </c>
       <c r="E7">
-        <v>0.2016257761836222</v>
+        <v>0.20162577618364</v>
       </c>
       <c r="F7">
-        <v>1.572357862169127</v>
+        <v>1.572357862169142</v>
       </c>
       <c r="G7">
         <v>1.238211229311588</v>
       </c>
       <c r="H7">
-        <v>0.2129231768075219</v>
+        <v>0.2129231768075206</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2.083653985437223</v>
+        <v>2.083653985437238</v>
       </c>
       <c r="K7">
-        <v>0.66542254895176</v>
+        <v>0.6654225489517529</v>
       </c>
       <c r="L7">
-        <v>0.81493932355</v>
+        <v>0.8149393235500071</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7601513577799892</v>
+        <v>0.7601513577800176</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01009792854478064</v>
+        <v>0.01009792854465985</v>
       </c>
       <c r="E8">
-        <v>0.2326255593394322</v>
+        <v>0.2326255593394251</v>
       </c>
       <c r="F8">
-        <v>1.899656658400644</v>
+        <v>1.899656658400659</v>
       </c>
       <c r="G8">
         <v>1.49353612421632</v>
       </c>
       <c r="H8">
-        <v>0.1781214495542391</v>
+        <v>0.1781214495542209</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>2.537690829673537</v>
+        <v>2.537690829673551</v>
       </c>
       <c r="K8">
-        <v>0.8159133862397425</v>
+        <v>0.8159133862397709</v>
       </c>
       <c r="L8">
         <v>0.9957399296260618</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.026337938699044</v>
+        <v>1.026337938699101</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01286637305188876</v>
+        <v>0.01286637305190652</v>
       </c>
       <c r="E9">
-        <v>0.2951660537848895</v>
+        <v>0.2951660537848326</v>
       </c>
       <c r="F9">
-        <v>2.605650295844299</v>
+        <v>2.605650295844271</v>
       </c>
       <c r="G9">
-        <v>2.047799659058626</v>
+        <v>2.047799659058597</v>
       </c>
       <c r="H9">
-        <v>0.1202949556496486</v>
+        <v>0.1202949556496491</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>3.454462655520288</v>
       </c>
       <c r="K9">
-        <v>1.123993804502504</v>
+        <v>1.123993804502518</v>
       </c>
       <c r="L9">
         <v>1.362248362021873</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.225788851320544</v>
+        <v>1.225788851320488</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01628371972928022</v>
+        <v>0.01628371972916298</v>
       </c>
       <c r="E10">
-        <v>0.3430019563407285</v>
+        <v>0.3430019563407214</v>
       </c>
       <c r="F10">
         <v>3.181341682419173</v>
@@ -734,19 +734,19 @@
         <v>2.502537471977888</v>
       </c>
       <c r="H10">
-        <v>0.08547477260630831</v>
+        <v>0.08547477260629011</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.154556093263608</v>
+        <v>4.154556093263665</v>
       </c>
       <c r="K10">
         <v>1.362664822389746</v>
       </c>
       <c r="L10">
-        <v>1.642985354272582</v>
+        <v>1.642985354272597</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.317783917188592</v>
+        <v>1.317783917188621</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01825776758834508</v>
+        <v>0.01825776758823139</v>
       </c>
       <c r="E11">
         <v>0.3654108032749335</v>
       </c>
       <c r="F11">
-        <v>3.460524339354095</v>
+        <v>3.460524339354123</v>
       </c>
       <c r="G11">
         <v>2.723812646488213</v>
       </c>
       <c r="H11">
-        <v>0.07164736381306058</v>
+        <v>0.07164736381306192</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>4.48168015028034</v>
       </c>
       <c r="K11">
-        <v>1.475125320559528</v>
+        <v>1.475125320559542</v>
       </c>
       <c r="L11">
-        <v>1.77432013497554</v>
+        <v>1.774320134975511</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.352842461165267</v>
+        <v>1.352842461165181</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01907809769681634</v>
+        <v>0.01907809769672042</v>
       </c>
       <c r="E12">
         <v>0.3740149173300438</v>
@@ -807,19 +807,19 @@
         <v>3.569233770767028</v>
       </c>
       <c r="G12">
-        <v>2.810095190591397</v>
+        <v>2.810095190591383</v>
       </c>
       <c r="H12">
-        <v>0.06673560207218454</v>
+        <v>0.06673560207218543</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.607090117393625</v>
+        <v>4.607090117393653</v>
       </c>
       <c r="K12">
-        <v>1.518392936873425</v>
+        <v>1.518392936873411</v>
       </c>
       <c r="L12">
         <v>1.824688711902326</v>
@@ -836,31 +836,31 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01889796033205826</v>
+        <v>0.01889796033206181</v>
       </c>
       <c r="E13">
-        <v>0.3721561405331428</v>
+        <v>0.3721561405331357</v>
       </c>
       <c r="F13">
         <v>3.545679300882114</v>
       </c>
       <c r="G13">
-        <v>2.791394426237773</v>
+        <v>2.791394426237801</v>
       </c>
       <c r="H13">
-        <v>0.06777839203284053</v>
+        <v>0.06777839203284186</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.580007320641187</v>
+        <v>4.580007320641243</v>
       </c>
       <c r="K13">
-        <v>1.509041993499466</v>
+        <v>1.509041993499423</v>
       </c>
       <c r="L13">
-        <v>1.813810672194037</v>
+        <v>1.813810672194052</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.320663502359253</v>
+        <v>1.320663502359281</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.01832371686449008</v>
+        <v>0.01832371686449363</v>
       </c>
       <c r="E14">
-        <v>0.3661161321246595</v>
+        <v>0.3661161321246453</v>
       </c>
       <c r="F14">
         <v>3.469404813982266</v>
       </c>
       <c r="G14">
-        <v>2.73085857441248</v>
+        <v>2.730858574412494</v>
       </c>
       <c r="H14">
-        <v>0.07123654833694326</v>
+        <v>0.07123654833694282</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>4.491965069458047</v>
       </c>
       <c r="K14">
-        <v>1.478670539686675</v>
+        <v>1.478670539686689</v>
       </c>
       <c r="L14">
-        <v>1.778450540455097</v>
+        <v>1.778450540455111</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.305614546152498</v>
+        <v>1.305614546152526</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.01798187124756012</v>
+        <v>0.01798187124741801</v>
       </c>
       <c r="E15">
-        <v>0.3624327111183945</v>
+        <v>0.3624327111183874</v>
       </c>
       <c r="F15">
         <v>3.423090238146216</v>
       </c>
       <c r="G15">
-        <v>2.694116691591361</v>
+        <v>2.69411669159139</v>
       </c>
       <c r="H15">
-        <v>0.07339814802743705</v>
+        <v>0.07339814802745082</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>1.460159875387248</v>
       </c>
       <c r="L15">
-        <v>1.75687783907712</v>
+        <v>1.756877839077106</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01616416244576513</v>
+        <v>0.01616416244586816</v>
       </c>
       <c r="E16">
-        <v>0.341552555107782</v>
+        <v>0.3415525551077252</v>
       </c>
       <c r="F16">
         <v>3.163485324652072</v>
       </c>
       <c r="G16">
-        <v>2.488400630584763</v>
+        <v>2.488400630584778</v>
       </c>
       <c r="H16">
-        <v>0.08642178744743312</v>
+        <v>0.08642178744743045</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.167514913777126</v>
+        <v>1.167514913777154</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01516461517226375</v>
+        <v>0.01516461517224954</v>
       </c>
       <c r="E17">
-        <v>0.3289254941244693</v>
+        <v>0.3289254941244621</v>
       </c>
       <c r="F17">
-        <v>3.008985482778314</v>
+        <v>3.008985482778371</v>
       </c>
       <c r="G17">
-        <v>2.366165904208387</v>
+        <v>2.366165904208401</v>
       </c>
       <c r="H17">
-        <v>0.09495000527770614</v>
+        <v>0.09495000527770747</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>3.948753454360826</v>
       </c>
       <c r="K17">
-        <v>1.292214864681952</v>
+        <v>1.292214864681966</v>
       </c>
       <c r="L17">
         <v>1.560403744890394</v>
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.137554975851856</v>
+        <v>1.137554975852026</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01462830774813284</v>
+        <v>0.01462830774825008</v>
       </c>
       <c r="E18">
-        <v>0.3217219495609385</v>
+        <v>0.3217219495609811</v>
       </c>
       <c r="F18">
-        <v>2.921714552100894</v>
+        <v>2.921714552100866</v>
       </c>
       <c r="G18">
-        <v>2.297187255076821</v>
+        <v>2.297187255076793</v>
       </c>
       <c r="H18">
-        <v>0.1000422429532462</v>
+        <v>0.1000422429532488</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>3.843357456822673</v>
+        <v>3.843357456822645</v>
       </c>
       <c r="K18">
-        <v>1.256227937846774</v>
+        <v>1.256227937846802</v>
       </c>
       <c r="L18">
-        <v>1.518127899955829</v>
+        <v>1.518127899955843</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1064,31 +1064,31 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01445301318346282</v>
+        <v>0.01445301318356584</v>
       </c>
       <c r="E19">
         <v>0.3192924412511857</v>
       </c>
       <c r="F19">
-        <v>2.892425933309141</v>
+        <v>2.89242593330917</v>
       </c>
       <c r="G19">
-        <v>2.27404875765761</v>
+        <v>2.274048757657624</v>
       </c>
       <c r="H19">
-        <v>0.1017975324424318</v>
+        <v>0.1017975324424469</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>3.807800466706027</v>
+        <v>3.807800466705999</v>
       </c>
       <c r="K19">
-        <v>1.244101401878467</v>
+        <v>1.244101401878453</v>
       </c>
       <c r="L19">
-        <v>1.503868151936558</v>
+        <v>1.503868151936587</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.173069034428664</v>
+        <v>1.173069034428551</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01526694064317979</v>
+        <v>0.01526694064330414</v>
       </c>
       <c r="E20">
-        <v>0.3302633735095597</v>
+        <v>0.3302633735096023</v>
       </c>
       <c r="F20">
         <v>3.025264011220997</v>
       </c>
       <c r="G20">
-        <v>2.379037820258773</v>
+        <v>2.379037820258787</v>
       </c>
       <c r="H20">
         <v>0.09402256894832517</v>
@@ -1123,10 +1123,10 @@
         <v>3.968322696020721</v>
       </c>
       <c r="K20">
-        <v>1.298903583780714</v>
+        <v>1.298903583780756</v>
       </c>
       <c r="L20">
-        <v>1.568254499174529</v>
+        <v>1.568254499174543</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.327887996578227</v>
+        <v>1.327887996578113</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01849029793244839</v>
+        <v>0.01849029793234891</v>
       </c>
       <c r="E21">
         <v>0.3678867875644727</v>
       </c>
       <c r="F21">
-        <v>3.491722889439728</v>
+        <v>3.4917228894397</v>
       </c>
       <c r="G21">
-        <v>2.748568106443884</v>
+        <v>2.748568106443869</v>
       </c>
       <c r="H21">
-        <v>0.07021169311492903</v>
+        <v>0.07021169311493036</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.517780950195487</v>
+        <v>4.517780950195515</v>
       </c>
       <c r="K21">
         <v>1.487571796847149</v>
       </c>
       <c r="L21">
-        <v>1.788818430704836</v>
+        <v>1.788818430704865</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.430388627080362</v>
+        <v>1.43038862708039</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02102908756284094</v>
+        <v>0.02102908756274147</v>
       </c>
       <c r="E22">
-        <v>0.3931819096122169</v>
+        <v>0.3931819096122311</v>
       </c>
       <c r="F22">
         <v>3.814308869387901</v>
       </c>
       <c r="G22">
-        <v>3.004848812477888</v>
+        <v>3.004848812477874</v>
       </c>
       <c r="H22">
-        <v>0.05656126455855759</v>
+        <v>0.05656126455855937</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.886009702119736</v>
+        <v>4.886009702119679</v>
       </c>
       <c r="K22">
-        <v>1.614922321485295</v>
+        <v>1.614922321485281</v>
       </c>
       <c r="L22">
-        <v>1.936738886594483</v>
+        <v>1.936738886594469</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.375546558321275</v>
+        <v>1.375546558321304</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01962971160862637</v>
+        <v>0.01962971160849847</v>
       </c>
       <c r="E23">
-        <v>0.3796069421045658</v>
+        <v>0.3796069421045729</v>
       </c>
       <c r="F23">
-        <v>3.640324851676723</v>
+        <v>3.64032485167678</v>
       </c>
       <c r="G23">
-        <v>2.866555596080687</v>
+        <v>2.866555596080715</v>
       </c>
       <c r="H23">
         <v>0.06365874191957843</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.688532628638058</v>
+        <v>4.688532628638086</v>
       </c>
       <c r="K23">
-        <v>1.546536318488378</v>
+        <v>1.546536318488393</v>
       </c>
       <c r="L23">
-        <v>1.857403042348338</v>
+        <v>1.857403042348295</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,7 +1248,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.170557699821217</v>
+        <v>1.170557699821245</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0.01522056076644418</v>
       </c>
       <c r="E24">
-        <v>0.3296583458699871</v>
+        <v>0.3296583458699942</v>
       </c>
       <c r="F24">
-        <v>3.017899687569525</v>
+        <v>3.017899687569496</v>
       </c>
       <c r="G24">
         <v>2.373214421589026</v>
       </c>
       <c r="H24">
-        <v>0.09444127601028995</v>
+        <v>0.09444127601029084</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>3.959473140460346</v>
       </c>
       <c r="K24">
-        <v>1.295878560544779</v>
+        <v>1.295878560544764</v>
       </c>
       <c r="L24">
-        <v>1.564704202808826</v>
+        <v>1.564704202808812</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9537716778706624</v>
+        <v>0.9537716778705487</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0119093619256212</v>
+        <v>0.01190936192572423</v>
       </c>
       <c r="E25">
-        <v>0.2779842831715769</v>
+        <v>0.277984283171584</v>
       </c>
       <c r="F25">
-        <v>2.406108463108168</v>
+        <v>2.406108463108154</v>
       </c>
       <c r="G25">
-        <v>1.890723576961818</v>
+        <v>1.890723576961804</v>
       </c>
       <c r="H25">
-        <v>0.1346979345887021</v>
+        <v>0.1346979345887038</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>3.202642336353009</v>
+        <v>3.202642336352994</v>
       </c>
       <c r="K25">
-        <v>1.038844921264158</v>
+        <v>1.038844921264143</v>
       </c>
       <c r="L25">
-        <v>1.261423163432056</v>
+        <v>1.26142316343207</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_53/res_line/pl_mw.xlsx
@@ -418,19 +418,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01035600544625126</v>
+        <v>0.01035600544625481</v>
       </c>
       <c r="E2">
         <v>0.2411179569439881</v>
       </c>
       <c r="F2">
-        <v>1.992106886911941</v>
+        <v>1.992106886911927</v>
       </c>
       <c r="G2">
-        <v>1.56586565699574</v>
+        <v>1.565865656995754</v>
       </c>
       <c r="H2">
-        <v>0.1693541131589584</v>
+        <v>0.1693541131589602</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>2.662164653488659</v>
       </c>
       <c r="K2">
-        <v>0.8574244029331339</v>
+        <v>0.8574244029331055</v>
       </c>
       <c r="L2">
-        <v>1.045402326508402</v>
+        <v>1.045402326508416</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6911156126446372</v>
+        <v>0.6911156126444951</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.009716823416379583</v>
+        <v>0.009716823416468401</v>
       </c>
       <c r="E3">
-        <v>0.2166010485286769</v>
+        <v>0.2166010485286698</v>
       </c>
       <c r="F3">
         <v>1.728407287873836</v>
       </c>
       <c r="G3">
-        <v>1.359791911316549</v>
+        <v>1.359791911316563</v>
       </c>
       <c r="H3">
-        <v>0.195539141462886</v>
+        <v>0.1955391414629033</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>2.302908311907942</v>
+        <v>2.302908311907956</v>
       </c>
       <c r="K3">
-        <v>0.7379077417246407</v>
+        <v>0.7379077417246549</v>
       </c>
       <c r="L3">
-        <v>0.9021739586774089</v>
+        <v>0.9021739586774018</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6266929341641685</v>
+        <v>0.6266929341642538</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.009490897154609712</v>
+        <v>0.009490897154492473</v>
       </c>
       <c r="E4">
-        <v>0.2017073238033653</v>
+        <v>0.201707323803344</v>
       </c>
       <c r="F4">
         <v>1.573196709307638</v>
       </c>
       <c r="G4">
-        <v>1.238863979338845</v>
+        <v>1.238863979338873</v>
       </c>
       <c r="H4">
-        <v>0.2128254419168347</v>
+        <v>0.2128254419168352</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2.084847421418715</v>
+        <v>2.084847421418729</v>
       </c>
       <c r="K4">
-        <v>0.6658161148438637</v>
+        <v>0.665816114843885</v>
       </c>
       <c r="L4">
-        <v>0.8154137435514812</v>
+        <v>0.8154137435514883</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6005095252455703</v>
+        <v>0.600509525245343</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.009435825409141785</v>
+        <v>0.009435825409255472</v>
       </c>
       <c r="E5">
-        <v>0.1956691877376393</v>
+        <v>0.1956691877376429</v>
       </c>
       <c r="F5">
-        <v>1.511419258144343</v>
+        <v>1.511419258144329</v>
       </c>
       <c r="G5">
         <v>1.190816650791476</v>
       </c>
       <c r="H5">
-        <v>0.2201571293043427</v>
+        <v>0.2201571293043556</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1.996497575019418</v>
+        <v>1.996497575019404</v>
       </c>
       <c r="K5">
         <v>0.6367104516677671</v>
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5961654504512239</v>
+        <v>0.5961654504512524</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009428783025526855</v>
+        <v>0.009428783025640541</v>
       </c>
       <c r="E6">
-        <v>0.1946682021719326</v>
+        <v>0.1946682021719148</v>
       </c>
       <c r="F6">
-        <v>1.501244255035573</v>
+        <v>1.501244255035544</v>
       </c>
       <c r="G6">
         <v>1.182907998722271</v>
       </c>
       <c r="H6">
-        <v>0.2213914516582292</v>
+        <v>0.2213914516582145</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1.981854711946454</v>
+        <v>1.981854711946497</v>
       </c>
       <c r="K6">
-        <v>0.6318924858613784</v>
+        <v>0.6318924858614139</v>
       </c>
       <c r="L6">
-        <v>0.7744894531178872</v>
+        <v>0.7744894531179014</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -608,31 +608,31 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.00949001069071187</v>
+        <v>0.009490010690715422</v>
       </c>
       <c r="E7">
-        <v>0.20162577618364</v>
+        <v>0.2016257761836222</v>
       </c>
       <c r="F7">
-        <v>1.572357862169142</v>
+        <v>1.572357862169127</v>
       </c>
       <c r="G7">
         <v>1.238211229311588</v>
       </c>
       <c r="H7">
-        <v>0.2129231768075206</v>
+        <v>0.2129231768075219</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2.083653985437238</v>
+        <v>2.083653985437223</v>
       </c>
       <c r="K7">
-        <v>0.6654225489517529</v>
+        <v>0.66542254895176</v>
       </c>
       <c r="L7">
-        <v>0.8149393235500071</v>
+        <v>0.81493932355</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7601513577800176</v>
+        <v>0.7601513577799892</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01009792854465985</v>
+        <v>0.01009792854478064</v>
       </c>
       <c r="E8">
-        <v>0.2326255593394251</v>
+        <v>0.2326255593394322</v>
       </c>
       <c r="F8">
-        <v>1.899656658400659</v>
+        <v>1.899656658400644</v>
       </c>
       <c r="G8">
         <v>1.49353612421632</v>
       </c>
       <c r="H8">
-        <v>0.1781214495542209</v>
+        <v>0.1781214495542391</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>2.537690829673551</v>
+        <v>2.537690829673537</v>
       </c>
       <c r="K8">
-        <v>0.8159133862397709</v>
+        <v>0.8159133862397425</v>
       </c>
       <c r="L8">
         <v>0.9957399296260618</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.026337938699101</v>
+        <v>1.026337938699044</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01286637305190652</v>
+        <v>0.01286637305188876</v>
       </c>
       <c r="E9">
-        <v>0.2951660537848326</v>
+        <v>0.2951660537848895</v>
       </c>
       <c r="F9">
-        <v>2.605650295844271</v>
+        <v>2.605650295844299</v>
       </c>
       <c r="G9">
-        <v>2.047799659058597</v>
+        <v>2.047799659058626</v>
       </c>
       <c r="H9">
-        <v>0.1202949556496491</v>
+        <v>0.1202949556496486</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>3.454462655520288</v>
       </c>
       <c r="K9">
-        <v>1.123993804502518</v>
+        <v>1.123993804502504</v>
       </c>
       <c r="L9">
         <v>1.362248362021873</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.225788851320488</v>
+        <v>1.225788851320544</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01628371972916298</v>
+        <v>0.01628371972928022</v>
       </c>
       <c r="E10">
-        <v>0.3430019563407214</v>
+        <v>0.3430019563407285</v>
       </c>
       <c r="F10">
         <v>3.181341682419173</v>
@@ -734,19 +734,19 @@
         <v>2.502537471977888</v>
       </c>
       <c r="H10">
-        <v>0.08547477260629011</v>
+        <v>0.08547477260630831</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.154556093263665</v>
+        <v>4.154556093263608</v>
       </c>
       <c r="K10">
         <v>1.362664822389746</v>
       </c>
       <c r="L10">
-        <v>1.642985354272597</v>
+        <v>1.642985354272582</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.317783917188621</v>
+        <v>1.317783917188592</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01825776758823139</v>
+        <v>0.01825776758834508</v>
       </c>
       <c r="E11">
         <v>0.3654108032749335</v>
       </c>
       <c r="F11">
-        <v>3.460524339354123</v>
+        <v>3.460524339354095</v>
       </c>
       <c r="G11">
         <v>2.723812646488213</v>
       </c>
       <c r="H11">
-        <v>0.07164736381306192</v>
+        <v>0.07164736381306058</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>4.48168015028034</v>
       </c>
       <c r="K11">
-        <v>1.475125320559542</v>
+        <v>1.475125320559528</v>
       </c>
       <c r="L11">
-        <v>1.774320134975511</v>
+        <v>1.77432013497554</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.352842461165181</v>
+        <v>1.352842461165267</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01907809769672042</v>
+        <v>0.01907809769681634</v>
       </c>
       <c r="E12">
         <v>0.3740149173300438</v>
@@ -807,19 +807,19 @@
         <v>3.569233770767028</v>
       </c>
       <c r="G12">
-        <v>2.810095190591383</v>
+        <v>2.810095190591397</v>
       </c>
       <c r="H12">
-        <v>0.06673560207218543</v>
+        <v>0.06673560207218454</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.607090117393653</v>
+        <v>4.607090117393625</v>
       </c>
       <c r="K12">
-        <v>1.518392936873411</v>
+        <v>1.518392936873425</v>
       </c>
       <c r="L12">
         <v>1.824688711902326</v>
@@ -836,31 +836,31 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01889796033206181</v>
+        <v>0.01889796033205826</v>
       </c>
       <c r="E13">
-        <v>0.3721561405331357</v>
+        <v>0.3721561405331428</v>
       </c>
       <c r="F13">
         <v>3.545679300882114</v>
       </c>
       <c r="G13">
-        <v>2.791394426237801</v>
+        <v>2.791394426237773</v>
       </c>
       <c r="H13">
-        <v>0.06777839203284186</v>
+        <v>0.06777839203284053</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.580007320641243</v>
+        <v>4.580007320641187</v>
       </c>
       <c r="K13">
-        <v>1.509041993499423</v>
+        <v>1.509041993499466</v>
       </c>
       <c r="L13">
-        <v>1.813810672194052</v>
+        <v>1.813810672194037</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.320663502359281</v>
+        <v>1.320663502359253</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.01832371686449363</v>
+        <v>0.01832371686449008</v>
       </c>
       <c r="E14">
-        <v>0.3661161321246453</v>
+        <v>0.3661161321246595</v>
       </c>
       <c r="F14">
         <v>3.469404813982266</v>
       </c>
       <c r="G14">
-        <v>2.730858574412494</v>
+        <v>2.73085857441248</v>
       </c>
       <c r="H14">
-        <v>0.07123654833694282</v>
+        <v>0.07123654833694326</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>4.491965069458047</v>
       </c>
       <c r="K14">
-        <v>1.478670539686689</v>
+        <v>1.478670539686675</v>
       </c>
       <c r="L14">
-        <v>1.778450540455111</v>
+        <v>1.778450540455097</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.305614546152526</v>
+        <v>1.305614546152498</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.01798187124741801</v>
+        <v>0.01798187124756012</v>
       </c>
       <c r="E15">
-        <v>0.3624327111183874</v>
+        <v>0.3624327111183945</v>
       </c>
       <c r="F15">
         <v>3.423090238146216</v>
       </c>
       <c r="G15">
-        <v>2.69411669159139</v>
+        <v>2.694116691591361</v>
       </c>
       <c r="H15">
-        <v>0.07339814802745082</v>
+        <v>0.07339814802743705</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>1.460159875387248</v>
       </c>
       <c r="L15">
-        <v>1.756877839077106</v>
+        <v>1.75687783907712</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01616416244586816</v>
+        <v>0.01616416244576513</v>
       </c>
       <c r="E16">
-        <v>0.3415525551077252</v>
+        <v>0.341552555107782</v>
       </c>
       <c r="F16">
         <v>3.163485324652072</v>
       </c>
       <c r="G16">
-        <v>2.488400630584778</v>
+        <v>2.488400630584763</v>
       </c>
       <c r="H16">
-        <v>0.08642178744743045</v>
+        <v>0.08642178744743312</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.167514913777154</v>
+        <v>1.167514913777126</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01516461517224954</v>
+        <v>0.01516461517226375</v>
       </c>
       <c r="E17">
-        <v>0.3289254941244621</v>
+        <v>0.3289254941244693</v>
       </c>
       <c r="F17">
-        <v>3.008985482778371</v>
+        <v>3.008985482778314</v>
       </c>
       <c r="G17">
-        <v>2.366165904208401</v>
+        <v>2.366165904208387</v>
       </c>
       <c r="H17">
-        <v>0.09495000527770747</v>
+        <v>0.09495000527770614</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>3.948753454360826</v>
       </c>
       <c r="K17">
-        <v>1.292214864681966</v>
+        <v>1.292214864681952</v>
       </c>
       <c r="L17">
         <v>1.560403744890394</v>
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.137554975852026</v>
+        <v>1.137554975851856</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01462830774825008</v>
+        <v>0.01462830774813284</v>
       </c>
       <c r="E18">
-        <v>0.3217219495609811</v>
+        <v>0.3217219495609385</v>
       </c>
       <c r="F18">
-        <v>2.921714552100866</v>
+        <v>2.921714552100894</v>
       </c>
       <c r="G18">
-        <v>2.297187255076793</v>
+        <v>2.297187255076821</v>
       </c>
       <c r="H18">
-        <v>0.1000422429532488</v>
+        <v>0.1000422429532462</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>3.843357456822645</v>
+        <v>3.843357456822673</v>
       </c>
       <c r="K18">
-        <v>1.256227937846802</v>
+        <v>1.256227937846774</v>
       </c>
       <c r="L18">
-        <v>1.518127899955843</v>
+        <v>1.518127899955829</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1064,31 +1064,31 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01445301318356584</v>
+        <v>0.01445301318346282</v>
       </c>
       <c r="E19">
         <v>0.3192924412511857</v>
       </c>
       <c r="F19">
-        <v>2.89242593330917</v>
+        <v>2.892425933309141</v>
       </c>
       <c r="G19">
-        <v>2.274048757657624</v>
+        <v>2.27404875765761</v>
       </c>
       <c r="H19">
-        <v>0.1017975324424469</v>
+        <v>0.1017975324424318</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>3.807800466705999</v>
+        <v>3.807800466706027</v>
       </c>
       <c r="K19">
-        <v>1.244101401878453</v>
+        <v>1.244101401878467</v>
       </c>
       <c r="L19">
-        <v>1.503868151936587</v>
+        <v>1.503868151936558</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.173069034428551</v>
+        <v>1.173069034428664</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01526694064330414</v>
+        <v>0.01526694064317979</v>
       </c>
       <c r="E20">
-        <v>0.3302633735096023</v>
+        <v>0.3302633735095597</v>
       </c>
       <c r="F20">
         <v>3.025264011220997</v>
       </c>
       <c r="G20">
-        <v>2.379037820258787</v>
+        <v>2.379037820258773</v>
       </c>
       <c r="H20">
         <v>0.09402256894832517</v>
@@ -1123,10 +1123,10 @@
         <v>3.968322696020721</v>
       </c>
       <c r="K20">
-        <v>1.298903583780756</v>
+        <v>1.298903583780714</v>
       </c>
       <c r="L20">
-        <v>1.568254499174543</v>
+        <v>1.568254499174529</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.327887996578113</v>
+        <v>1.327887996578227</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01849029793234891</v>
+        <v>0.01849029793244839</v>
       </c>
       <c r="E21">
         <v>0.3678867875644727</v>
       </c>
       <c r="F21">
-        <v>3.4917228894397</v>
+        <v>3.491722889439728</v>
       </c>
       <c r="G21">
-        <v>2.748568106443869</v>
+        <v>2.748568106443884</v>
       </c>
       <c r="H21">
-        <v>0.07021169311493036</v>
+        <v>0.07021169311492903</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.517780950195515</v>
+        <v>4.517780950195487</v>
       </c>
       <c r="K21">
         <v>1.487571796847149</v>
       </c>
       <c r="L21">
-        <v>1.788818430704865</v>
+        <v>1.788818430704836</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.43038862708039</v>
+        <v>1.430388627080362</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02102908756274147</v>
+        <v>0.02102908756284094</v>
       </c>
       <c r="E22">
-        <v>0.3931819096122311</v>
+        <v>0.3931819096122169</v>
       </c>
       <c r="F22">
         <v>3.814308869387901</v>
       </c>
       <c r="G22">
-        <v>3.004848812477874</v>
+        <v>3.004848812477888</v>
       </c>
       <c r="H22">
-        <v>0.05656126455855937</v>
+        <v>0.05656126455855759</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.886009702119679</v>
+        <v>4.886009702119736</v>
       </c>
       <c r="K22">
-        <v>1.614922321485281</v>
+        <v>1.614922321485295</v>
       </c>
       <c r="L22">
-        <v>1.936738886594469</v>
+        <v>1.936738886594483</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.375546558321304</v>
+        <v>1.375546558321275</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01962971160849847</v>
+        <v>0.01962971160862637</v>
       </c>
       <c r="E23">
-        <v>0.3796069421045729</v>
+        <v>0.3796069421045658</v>
       </c>
       <c r="F23">
-        <v>3.64032485167678</v>
+        <v>3.640324851676723</v>
       </c>
       <c r="G23">
-        <v>2.866555596080715</v>
+        <v>2.866555596080687</v>
       </c>
       <c r="H23">
         <v>0.06365874191957843</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.688532628638086</v>
+        <v>4.688532628638058</v>
       </c>
       <c r="K23">
-        <v>1.546536318488393</v>
+        <v>1.546536318488378</v>
       </c>
       <c r="L23">
-        <v>1.857403042348295</v>
+        <v>1.857403042348338</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,7 +1248,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.170557699821245</v>
+        <v>1.170557699821217</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0.01522056076644418</v>
       </c>
       <c r="E24">
-        <v>0.3296583458699942</v>
+        <v>0.3296583458699871</v>
       </c>
       <c r="F24">
-        <v>3.017899687569496</v>
+        <v>3.017899687569525</v>
       </c>
       <c r="G24">
         <v>2.373214421589026</v>
       </c>
       <c r="H24">
-        <v>0.09444127601029084</v>
+        <v>0.09444127601028995</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>3.959473140460346</v>
       </c>
       <c r="K24">
-        <v>1.295878560544764</v>
+        <v>1.295878560544779</v>
       </c>
       <c r="L24">
-        <v>1.564704202808812</v>
+        <v>1.564704202808826</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9537716778705487</v>
+        <v>0.9537716778706624</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01190936192572423</v>
+        <v>0.0119093619256212</v>
       </c>
       <c r="E25">
-        <v>0.277984283171584</v>
+        <v>0.2779842831715769</v>
       </c>
       <c r="F25">
-        <v>2.406108463108154</v>
+        <v>2.406108463108168</v>
       </c>
       <c r="G25">
-        <v>1.890723576961804</v>
+        <v>1.890723576961818</v>
       </c>
       <c r="H25">
-        <v>0.1346979345887038</v>
+        <v>0.1346979345887021</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>3.202642336352994</v>
+        <v>3.202642336353009</v>
       </c>
       <c r="K25">
-        <v>1.038844921264143</v>
+        <v>1.038844921264158</v>
       </c>
       <c r="L25">
-        <v>1.26142316343207</v>
+        <v>1.261423163432056</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_53/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7966117851350134</v>
+        <v>0.7969053356665086</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01035600544625481</v>
+        <v>0.01027218179967448</v>
       </c>
       <c r="E2">
-        <v>0.2411179569439881</v>
+        <v>0.2408132736737798</v>
       </c>
       <c r="F2">
-        <v>1.992106886911927</v>
+        <v>1.988864190280225</v>
       </c>
       <c r="G2">
-        <v>1.565865656995754</v>
+        <v>0.5198798944891507</v>
       </c>
       <c r="H2">
-        <v>0.1693541131589602</v>
+        <v>1.046375089617101</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.169297029927165</v>
       </c>
       <c r="J2">
-        <v>2.662164653488659</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8574244029331055</v>
+        <v>2.660713239064975</v>
       </c>
       <c r="L2">
-        <v>1.045402326508416</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.8569715723307638</v>
+      </c>
+      <c r="M2">
+        <v>1.045113119899312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6911156126444951</v>
+        <v>0.6913763105889643</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.009716823416468401</v>
+        <v>0.009644617284205736</v>
       </c>
       <c r="E3">
-        <v>0.2166010485286698</v>
+        <v>0.2163472246219484</v>
       </c>
       <c r="F3">
-        <v>1.728407287873836</v>
+        <v>1.725623425264075</v>
       </c>
       <c r="G3">
-        <v>1.359791911316563</v>
+        <v>0.4476502437300525</v>
       </c>
       <c r="H3">
-        <v>0.1955391414629033</v>
+        <v>0.9131427352197363</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.1954776412884507</v>
       </c>
       <c r="J3">
-        <v>2.302908311907956</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7379077417246549</v>
+        <v>2.301696780416236</v>
       </c>
       <c r="L3">
-        <v>0.9021739586774018</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.7375283561410981</v>
+      </c>
+      <c r="M3">
+        <v>0.9019359849274693</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6266929341642538</v>
+        <v>0.6269329030165807</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.009490897154492473</v>
+        <v>0.009425156685892944</v>
       </c>
       <c r="E4">
-        <v>0.201707323803344</v>
+        <v>0.2014840001306126</v>
       </c>
       <c r="F4">
-        <v>1.573196709307638</v>
+        <v>1.570680297687005</v>
       </c>
       <c r="G4">
-        <v>1.238863979338873</v>
+        <v>0.4051249979010549</v>
       </c>
       <c r="H4">
-        <v>0.2128254419168352</v>
+        <v>0.8350993289049455</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.2127605726651693</v>
       </c>
       <c r="J4">
-        <v>2.084847421418729</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.665816114843885</v>
+        <v>2.083775708006058</v>
       </c>
       <c r="L4">
-        <v>0.8154137435514883</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.6654791014909307</v>
+      </c>
+      <c r="M4">
+        <v>0.8152048411316173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.600509525245343</v>
+        <v>0.6007409233864962</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.009435825409255472</v>
+        <v>0.009372573910020776</v>
       </c>
       <c r="E5">
-        <v>0.1956691877376429</v>
+        <v>0.1954581579967254</v>
       </c>
       <c r="F5">
-        <v>1.511419258144329</v>
+        <v>1.509008807018134</v>
       </c>
       <c r="G5">
-        <v>1.190816650791476</v>
+        <v>0.3881944113779952</v>
       </c>
       <c r="H5">
-        <v>0.2201571293043556</v>
+        <v>0.8041255290434179</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2200907417924025</v>
       </c>
       <c r="J5">
-        <v>1.996497575019404</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6367104516677671</v>
+        <v>1.995481288155688</v>
       </c>
       <c r="L5">
-        <v>0.7803055693882612</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.6363901347020828</v>
+      </c>
+      <c r="M5">
+        <v>0.7801080115955941</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5961654504512524</v>
+        <v>0.5963954184178704</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009428783025640541</v>
+        <v>0.009365936599444069</v>
       </c>
       <c r="E6">
-        <v>0.1946682021719148</v>
+        <v>0.1944592069375517</v>
       </c>
       <c r="F6">
-        <v>1.501244255035544</v>
+        <v>1.498851230657991</v>
       </c>
       <c r="G6">
-        <v>1.182907998722271</v>
+        <v>0.3854055531387957</v>
       </c>
       <c r="H6">
-        <v>0.2213914516582145</v>
+        <v>0.7990292783835855</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.221324803786533</v>
       </c>
       <c r="J6">
-        <v>1.981854711946497</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6318924858614139</v>
+        <v>1.980847543725361</v>
       </c>
       <c r="L6">
-        <v>0.7744894531179014</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.6315749098896433</v>
+      </c>
+      <c r="M6">
+        <v>0.774293751363011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6263395588734681</v>
+        <v>0.6265794126179003</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.009490010690715422</v>
+        <v>0.009424304352684487</v>
       </c>
       <c r="E7">
-        <v>0.2016257761836222</v>
+        <v>0.2014026188000919</v>
       </c>
       <c r="F7">
-        <v>1.572357862169127</v>
+        <v>1.569842891142571</v>
       </c>
       <c r="G7">
-        <v>1.238211229311588</v>
+        <v>0.4048951260075455</v>
       </c>
       <c r="H7">
-        <v>0.2129231768075219</v>
+        <v>0.8346783917926359</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.2128582876444565</v>
       </c>
       <c r="J7">
-        <v>2.083653985437223</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.66542254895176</v>
+        <v>2.082583025402997</v>
       </c>
       <c r="L7">
-        <v>0.81493932355</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.6650857629433773</v>
+      </c>
+      <c r="M7">
+        <v>0.8147305760417609</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7601513577799892</v>
+        <v>0.7604337073775014</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01009792854478064</v>
+        <v>0.0100182633689947</v>
       </c>
       <c r="E8">
-        <v>0.2326255593394322</v>
+        <v>0.2323385944135552</v>
       </c>
       <c r="F8">
-        <v>1.899656658400644</v>
+        <v>1.89657549436663</v>
       </c>
       <c r="G8">
-        <v>1.49353612421632</v>
+        <v>0.4945584345172023</v>
       </c>
       <c r="H8">
-        <v>0.1781214495542391</v>
+        <v>0.9995817467851396</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.1780629927323165</v>
       </c>
       <c r="J8">
-        <v>2.537690829673537</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8159133862397425</v>
+        <v>2.536323890094593</v>
       </c>
       <c r="L8">
-        <v>0.9957399296260618</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.8154865187756428</v>
+      </c>
+      <c r="M8">
+        <v>0.9954689467163007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.026337938699044</v>
+        <v>1.026698276960531</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01286637305188876</v>
+        <v>0.01275286051059865</v>
       </c>
       <c r="E9">
-        <v>0.2951660537848895</v>
+        <v>0.2947455947991173</v>
       </c>
       <c r="F9">
-        <v>2.605650295844299</v>
+        <v>2.601315201593337</v>
       </c>
       <c r="G9">
-        <v>2.047799659058626</v>
+        <v>0.6879473461296328</v>
       </c>
       <c r="H9">
-        <v>0.1202949556496486</v>
+        <v>1.358805754294707</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.12024279944356</v>
       </c>
       <c r="J9">
-        <v>3.454462655520288</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1.123993804502504</v>
+        <v>3.452438288182108</v>
       </c>
       <c r="L9">
-        <v>1.362248362021873</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>1.123362485201326</v>
+      </c>
+      <c r="M9">
+        <v>1.361831103191804</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.225788851320544</v>
+        <v>1.226201591403878</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01628371972928022</v>
+        <v>0.01613937866228454</v>
       </c>
       <c r="E10">
-        <v>0.3430019563407285</v>
+        <v>0.3424738097173616</v>
       </c>
       <c r="F10">
-        <v>3.181341682419173</v>
+        <v>3.175945233801485</v>
       </c>
       <c r="G10">
-        <v>2.502537471977888</v>
+        <v>0.8457624554662431</v>
       </c>
       <c r="H10">
-        <v>0.08547477260630831</v>
+        <v>1.654357732059026</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.0854214401157587</v>
       </c>
       <c r="J10">
-        <v>4.154556093263608</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1.362664822389746</v>
+        <v>4.151971092813994</v>
       </c>
       <c r="L10">
-        <v>1.642985354272582</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>1.361855579303878</v>
+      </c>
+      <c r="M10">
+        <v>1.642436644460886</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.317783917188592</v>
+        <v>1.3182189249857</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01825776758834508</v>
+        <v>0.01809751369588497</v>
       </c>
       <c r="E11">
-        <v>0.3654108032749335</v>
+        <v>0.3648302262385101</v>
       </c>
       <c r="F11">
-        <v>3.460524339354095</v>
+        <v>3.454598943774442</v>
       </c>
       <c r="G11">
-        <v>2.723812646488213</v>
+        <v>0.9223540767846714</v>
       </c>
       <c r="H11">
-        <v>0.07164736381306058</v>
+        <v>1.798366344153109</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.0715916297939394</v>
       </c>
       <c r="J11">
-        <v>4.48168015028034</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1.475125320559528</v>
+        <v>4.478814087920398</v>
       </c>
       <c r="L11">
-        <v>1.77432013497554</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>1.474225884395295</v>
+      </c>
+      <c r="M11">
+        <v>1.773703651513841</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.352842461165267</v>
+        <v>1.353285617441543</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01907809769681634</v>
+        <v>0.01891148148252952</v>
       </c>
       <c r="E12">
-        <v>0.3740149173300438</v>
+        <v>0.3734138410813301</v>
       </c>
       <c r="F12">
-        <v>3.569233770767028</v>
+        <v>3.563099711177159</v>
       </c>
       <c r="G12">
-        <v>2.810095190591397</v>
+        <v>0.9521892753616612</v>
       </c>
       <c r="H12">
-        <v>0.06673560207218454</v>
+        <v>1.854548865128066</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.06667862145926451</v>
       </c>
       <c r="J12">
-        <v>4.607090117393625</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.518392936873425</v>
+        <v>4.604112870022135</v>
       </c>
       <c r="L12">
-        <v>1.824688711902326</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>1.517457657557301</v>
+      </c>
+      <c r="M12">
+        <v>1.824045110673239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.34528139390622</v>
+        <v>1.345722808984959</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01889796033205826</v>
+        <v>0.01873273053048763</v>
       </c>
       <c r="E13">
-        <v>0.3721561405331428</v>
+        <v>0.3715595106516005</v>
       </c>
       <c r="F13">
-        <v>3.545679300882114</v>
+        <v>3.53959058513064</v>
       </c>
       <c r="G13">
-        <v>2.791394426237773</v>
+        <v>0.9457242063567008</v>
       </c>
       <c r="H13">
-        <v>0.06777839203284053</v>
+        <v>1.842370649692427</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.06772169619610491</v>
       </c>
       <c r="J13">
-        <v>4.580007320641187</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.509041993499466</v>
+        <v>4.577054249238955</v>
       </c>
       <c r="L13">
-        <v>1.813810672194037</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>1.508114515479079</v>
+      </c>
+      <c r="M13">
+        <v>1.813172981642523</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.320663502359253</v>
+        <v>1.321099186615157</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.01832371686449008</v>
+        <v>0.01816294671262497</v>
       </c>
       <c r="E14">
-        <v>0.3661161321246595</v>
+        <v>0.3655338825296397</v>
       </c>
       <c r="F14">
-        <v>3.469404813982266</v>
+        <v>3.463462430592699</v>
       </c>
       <c r="G14">
-        <v>2.73085857441248</v>
+        <v>0.9247910649945794</v>
       </c>
       <c r="H14">
-        <v>0.07123654833694326</v>
+        <v>1.802953693947188</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.07118071898005773</v>
       </c>
       <c r="J14">
-        <v>4.491965069458047</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.478670539686675</v>
+        <v>4.489089961809412</v>
       </c>
       <c r="L14">
-        <v>1.778450540455097</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>1.47776819091888</v>
+      </c>
+      <c r="M14">
+        <v>1.777831857165324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.305614546152498</v>
+        <v>1.306046681155948</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.01798187124756012</v>
+        <v>0.01782378674262475</v>
       </c>
       <c r="E15">
-        <v>0.3624327111183945</v>
+        <v>0.3618591807635312</v>
       </c>
       <c r="F15">
-        <v>3.423090238146216</v>
+        <v>3.417236339581251</v>
       </c>
       <c r="G15">
-        <v>2.694116691591361</v>
+        <v>0.9120818582275092</v>
       </c>
       <c r="H15">
-        <v>0.07339814802743705</v>
+        <v>1.779033532378961</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.07334280313724628</v>
       </c>
       <c r="J15">
-        <v>4.438246162127854</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.460159875387248</v>
+        <v>4.435418156189769</v>
       </c>
       <c r="L15">
-        <v>1.75687783907712</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>1.459272686852231</v>
+      </c>
+      <c r="M15">
+        <v>1.756270598574858</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.219805494245094</v>
+        <v>1.220216742874499</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01616416244576513</v>
+        <v>0.01602081811567757</v>
       </c>
       <c r="E16">
-        <v>0.341552555107782</v>
+        <v>0.3410277536898292</v>
       </c>
       <c r="F16">
-        <v>3.163485324652072</v>
+        <v>3.158122377418096</v>
       </c>
       <c r="G16">
-        <v>2.488400630584763</v>
+        <v>0.8408651075982192</v>
       </c>
       <c r="H16">
-        <v>0.08642178744743312</v>
+        <v>1.645161165050055</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.08636856887799604</v>
       </c>
       <c r="J16">
-        <v>4.133375511255139</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1.355403452322591</v>
+        <v>4.13080827437193</v>
       </c>
       <c r="L16">
-        <v>1.634484544921733</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>1.354599888733944</v>
+      </c>
+      <c r="M16">
+        <v>1.633940079307877</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.167514913777126</v>
+        <v>1.167912910531015</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01516461517226375</v>
+        <v>0.01502978821490331</v>
       </c>
       <c r="E17">
-        <v>0.3289254941244693</v>
+        <v>0.3284296092198389</v>
       </c>
       <c r="F17">
-        <v>3.008985482778314</v>
+        <v>3.003910800748571</v>
       </c>
       <c r="G17">
-        <v>2.366165904208387</v>
+        <v>0.7984981512270366</v>
       </c>
       <c r="H17">
-        <v>0.09495000527770614</v>
+        <v>1.565663656397945</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.09489756968793772</v>
       </c>
       <c r="J17">
-        <v>3.948753454360826</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1.292214864681952</v>
+        <v>3.946338880920194</v>
       </c>
       <c r="L17">
-        <v>1.560403744890394</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>1.291460004063723</v>
+      </c>
+      <c r="M17">
+        <v>1.559895551832653</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.137554975851856</v>
+        <v>1.137945206942788</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01462830774813284</v>
+        <v>0.01449820664635126</v>
       </c>
       <c r="E18">
-        <v>0.3217219495609385</v>
+        <v>0.3212423834852061</v>
       </c>
       <c r="F18">
-        <v>2.921714552100894</v>
+        <v>2.916801455547699</v>
       </c>
       <c r="G18">
-        <v>2.297187255076821</v>
+        <v>0.7745718460707423</v>
       </c>
       <c r="H18">
-        <v>0.1000422429532462</v>
+        <v>1.520819572409067</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.09999008707719437</v>
       </c>
       <c r="J18">
-        <v>3.843357456822673</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>1.256227937846774</v>
+        <v>3.841028314622662</v>
       </c>
       <c r="L18">
-        <v>1.518127899955829</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>1.255500244753989</v>
+      </c>
+      <c r="M18">
+        <v>1.517639841383669</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.127429886457094</v>
+        <v>1.127817465100094</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01445301318346282</v>
+        <v>0.01432448417575927</v>
       </c>
       <c r="E19">
-        <v>0.3192924412511857</v>
+        <v>0.3188183506380042</v>
       </c>
       <c r="F19">
-        <v>2.892425933309141</v>
+        <v>2.887566868541711</v>
       </c>
       <c r="G19">
-        <v>2.27404875765761</v>
+        <v>0.7665428385429891</v>
       </c>
       <c r="H19">
-        <v>0.1017975324424318</v>
+        <v>1.505779837312815</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.1017454437732468</v>
       </c>
       <c r="J19">
-        <v>3.807800466706027</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1.244101401878467</v>
+        <v>3.805499868719039</v>
       </c>
       <c r="L19">
-        <v>1.503868151936558</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>1.243382771598036</v>
+      </c>
+      <c r="M19">
+        <v>1.503386793564559</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.173069034428664</v>
+        <v>1.173468457093776</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01526694064317979</v>
+        <v>0.01513122533456013</v>
       </c>
       <c r="E20">
-        <v>0.3302633735095597</v>
+        <v>0.3297644437737119</v>
       </c>
       <c r="F20">
-        <v>3.025264011220997</v>
+        <v>3.020159090502005</v>
       </c>
       <c r="G20">
-        <v>2.379037820258773</v>
+        <v>0.8029614943586409</v>
       </c>
       <c r="H20">
-        <v>0.09402256894832517</v>
+        <v>1.574033313301385</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.09397006810955766</v>
       </c>
       <c r="J20">
-        <v>3.968322696020721</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1.298903583780714</v>
+        <v>3.965892123812466</v>
       </c>
       <c r="L20">
-        <v>1.568254499174529</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>1.298143628429102</v>
+      </c>
+      <c r="M20">
+        <v>1.567742522220001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.327887996578227</v>
+        <v>1.328325372361661</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01849029793244839</v>
+        <v>0.01832822760264463</v>
       </c>
       <c r="E21">
-        <v>0.3678867875644727</v>
+        <v>0.3673003330236781</v>
       </c>
       <c r="F21">
-        <v>3.491722889439728</v>
+        <v>3.485737767658577</v>
       </c>
       <c r="G21">
-        <v>2.748568106443884</v>
+        <v>0.930915807149475</v>
       </c>
       <c r="H21">
-        <v>0.07021169311492903</v>
+        <v>1.814484190871909</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.070155619046814</v>
       </c>
       <c r="J21">
-        <v>4.517780950195487</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1.487571796847149</v>
+        <v>4.514883081039073</v>
       </c>
       <c r="L21">
-        <v>1.788818430704836</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>1.48666211616576</v>
+      </c>
+      <c r="M21">
+        <v>1.788194206803695</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.430388627080362</v>
+        <v>1.430849113364104</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02102908756284094</v>
+        <v>0.02084778865728509</v>
       </c>
       <c r="E22">
-        <v>0.3931819096122169</v>
+        <v>0.392534392921597</v>
       </c>
       <c r="F22">
-        <v>3.814308869387901</v>
+        <v>3.807698585975714</v>
       </c>
       <c r="G22">
-        <v>3.004848812477888</v>
+        <v>1.019474842168364</v>
       </c>
       <c r="H22">
-        <v>0.05656126455855759</v>
+        <v>1.981415485038895</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.05650084273903833</v>
       </c>
       <c r="J22">
-        <v>4.886009702119736</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.614922321485295</v>
+        <v>4.882778050608721</v>
       </c>
       <c r="L22">
-        <v>1.936738886594483</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>1.61390470236789</v>
+      </c>
+      <c r="M22">
+        <v>1.936032626668776</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.375546558321275</v>
+        <v>1.375994888790018</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01962971160862637</v>
+        <v>0.01945888463603751</v>
       </c>
       <c r="E23">
-        <v>0.3796069421045658</v>
+        <v>0.3789924289750957</v>
       </c>
       <c r="F23">
-        <v>3.640324851676723</v>
+        <v>3.63405348925761</v>
       </c>
       <c r="G23">
-        <v>2.866555596080687</v>
+        <v>0.9717037927405414</v>
       </c>
       <c r="H23">
-        <v>0.06365874191957843</v>
+        <v>1.891320930344847</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.06360085277957372</v>
       </c>
       <c r="J23">
-        <v>4.688532628638058</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.546536318488378</v>
+        <v>4.685482125326899</v>
       </c>
       <c r="L23">
-        <v>1.857403042348338</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>1.54557737507416</v>
+      </c>
+      <c r="M23">
+        <v>1.856741483820471</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.170557699821217</v>
+        <v>1.170956478285689</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01522056076644418</v>
+        <v>0.01508524760893692</v>
       </c>
       <c r="E24">
-        <v>0.3296583458699871</v>
+        <v>0.3291607936434744</v>
       </c>
       <c r="F24">
-        <v>3.017899687569525</v>
+        <v>3.012808450537392</v>
       </c>
       <c r="G24">
-        <v>2.373214421589026</v>
+        <v>0.8009422846802465</v>
       </c>
       <c r="H24">
-        <v>0.09444127601028995</v>
+        <v>1.570246732459395</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.09438880519647164</v>
       </c>
       <c r="J24">
-        <v>3.959473140460346</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1.295878560544779</v>
+        <v>3.957049808500898</v>
       </c>
       <c r="L24">
-        <v>1.564704202808826</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>1.295120911089072</v>
+      </c>
+      <c r="M24">
+        <v>1.564193938771723</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9537716778706624</v>
+        <v>0.9541116367242637</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0119093619256212</v>
+        <v>0.01180588327964571</v>
       </c>
       <c r="E25">
-        <v>0.2779842831715769</v>
+        <v>0.2776012426307517</v>
       </c>
       <c r="F25">
-        <v>2.406108463108168</v>
+        <v>2.402132742790215</v>
       </c>
       <c r="G25">
-        <v>1.890723576961818</v>
+        <v>0.6332777100399625</v>
       </c>
       <c r="H25">
-        <v>0.1346979345887021</v>
+        <v>1.25686870790453</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.1346449247878665</v>
       </c>
       <c r="J25">
-        <v>3.202642336353009</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>1.038844921264158</v>
+        <v>3.200806854058555</v>
       </c>
       <c r="L25">
-        <v>1.261423163432056</v>
+        <v>1.038272864151708</v>
+      </c>
+      <c r="M25">
+        <v>1.261048905568458</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_53/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7969053356665086</v>
+        <v>0.2708223701338284</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01027218179967448</v>
+        <v>0.04075012876454309</v>
       </c>
       <c r="E2">
-        <v>0.2408132736737798</v>
+        <v>0.02535628458047789</v>
       </c>
       <c r="F2">
-        <v>1.988864190280225</v>
+        <v>2.925899537223984</v>
       </c>
       <c r="G2">
-        <v>0.5198798944891507</v>
+        <v>0.0007702473711689133</v>
       </c>
       <c r="H2">
-        <v>1.046375089617101</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.169297029927165</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.04181183702859315</v>
       </c>
       <c r="K2">
-        <v>2.660713239064975</v>
+        <v>2.831492265651931</v>
       </c>
       <c r="L2">
-        <v>0.8569715723307638</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1.045113119899312</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>1.897154595592255</v>
+      </c>
+      <c r="N2">
+        <v>0.8189944691582056</v>
+      </c>
+      <c r="O2">
+        <v>2.267394427647162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6913763105889643</v>
+        <v>0.2366839998619383</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.009644617284205736</v>
+        <v>0.03587343497491702</v>
       </c>
       <c r="E3">
-        <v>0.2163472246219484</v>
+        <v>0.02559911572752915</v>
       </c>
       <c r="F3">
-        <v>1.725623425264075</v>
+        <v>2.617109771563662</v>
       </c>
       <c r="G3">
-        <v>0.4476502437300525</v>
+        <v>0.0007818626136732605</v>
       </c>
       <c r="H3">
-        <v>0.9131427352197363</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1954776412884507</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.04303967912860074</v>
       </c>
       <c r="K3">
-        <v>2.301696780416236</v>
+        <v>2.440607409220334</v>
       </c>
       <c r="L3">
-        <v>0.7375283561410981</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.9019359849274693</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>1.641224384603603</v>
+      </c>
+      <c r="N3">
+        <v>0.8675422172480083</v>
+      </c>
+      <c r="O3">
+        <v>2.015941997964319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6269329030165807</v>
+        <v>0.2159018650416158</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.009425156685892944</v>
+        <v>0.03298610042928729</v>
       </c>
       <c r="E4">
-        <v>0.2014840001306126</v>
+        <v>0.02576733451951441</v>
       </c>
       <c r="F4">
-        <v>1.570680297687005</v>
+        <v>2.436585178897516</v>
       </c>
       <c r="G4">
-        <v>0.4051249979010549</v>
+        <v>0.000789140548892333</v>
       </c>
       <c r="H4">
-        <v>0.8350993289049455</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2127605726651693</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.04389485102359636</v>
       </c>
       <c r="K4">
-        <v>2.083775708006058</v>
+        <v>2.204879606011843</v>
       </c>
       <c r="L4">
-        <v>0.6654791014909307</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.8152048411316173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>1.487076236638714</v>
+      </c>
+      <c r="N4">
+        <v>0.8988369043204116</v>
+      </c>
+      <c r="O4">
+        <v>1.868795827023419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6007409233864962</v>
+        <v>0.2074730607305639</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.009372573910020776</v>
+        <v>0.0318312581743001</v>
       </c>
       <c r="E5">
-        <v>0.1954581579967254</v>
+        <v>0.02584043665848235</v>
       </c>
       <c r="F5">
-        <v>1.509008807018134</v>
+        <v>2.365031423267169</v>
       </c>
       <c r="G5">
-        <v>0.3881944113779952</v>
+        <v>0.0007921466999015293</v>
       </c>
       <c r="H5">
-        <v>0.8041255290434179</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2200907417924025</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.04426743950168266</v>
       </c>
       <c r="K5">
-        <v>1.995481288155688</v>
+        <v>2.109718785406955</v>
       </c>
       <c r="L5">
-        <v>0.6363901347020828</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7801080115955941</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1.424896691092641</v>
+      </c>
+      <c r="N5">
+        <v>0.9119525516663636</v>
+      </c>
+      <c r="O5">
+        <v>1.810433420107287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5963954184178704</v>
+        <v>0.2060757483935021</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009365936599444069</v>
+        <v>0.03164067456304309</v>
       </c>
       <c r="E6">
-        <v>0.1944592069375517</v>
+        <v>0.02585284335257299</v>
       </c>
       <c r="F6">
-        <v>1.498851230657991</v>
+        <v>2.353264130393086</v>
       </c>
       <c r="G6">
-        <v>0.3854055531387957</v>
+        <v>0.0007926484027300784</v>
       </c>
       <c r="H6">
-        <v>0.7990292783835855</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.221324803786533</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.04433072562637541</v>
       </c>
       <c r="K6">
-        <v>1.980847543725361</v>
+        <v>2.093967022131295</v>
       </c>
       <c r="L6">
-        <v>0.6315749098896433</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.774293751363011</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1.414607163484092</v>
+      </c>
+      <c r="N6">
+        <v>0.9141520066971403</v>
+      </c>
+      <c r="O6">
+        <v>1.800833066277477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6265794126179003</v>
+        <v>0.2157880351720394</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.009424304352684487</v>
+        <v>0.03297044398663829</v>
       </c>
       <c r="E7">
-        <v>0.2014026188000919</v>
+        <v>0.02576830228165938</v>
       </c>
       <c r="F7">
-        <v>1.569842891142571</v>
+        <v>2.435612370833937</v>
       </c>
       <c r="G7">
-        <v>0.4048951260075455</v>
+        <v>0.0007891809231415994</v>
       </c>
       <c r="H7">
-        <v>0.8346783917926359</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2128582876444565</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.04389978001442252</v>
       </c>
       <c r="K7">
-        <v>2.082583025402997</v>
+        <v>2.203592806384336</v>
       </c>
       <c r="L7">
-        <v>0.6650857629433773</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.8147305760417609</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1.486235225612461</v>
+      </c>
+      <c r="N7">
+        <v>0.8990123312429574</v>
+      </c>
+      <c r="O7">
+        <v>1.868002524093171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7604337073775014</v>
+        <v>0.2590112290916835</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0100182633689947</v>
+        <v>0.03904313852343932</v>
       </c>
       <c r="E8">
-        <v>0.2323385944135552</v>
+        <v>0.02543587749431153</v>
       </c>
       <c r="F8">
-        <v>1.89657549436663</v>
+        <v>2.817373075285218</v>
       </c>
       <c r="G8">
-        <v>0.4945584345172023</v>
+        <v>0.0007742242651340414</v>
       </c>
       <c r="H8">
-        <v>0.9995817467851396</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1780629927323165</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.04221331157870267</v>
       </c>
       <c r="K8">
-        <v>2.536323890094593</v>
+        <v>2.695715242622441</v>
       </c>
       <c r="L8">
-        <v>0.8154865187756428</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9954689467163007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1.808214376759864</v>
+      </c>
+      <c r="N8">
+        <v>0.8354184204923953</v>
+      </c>
+      <c r="O8">
+        <v>2.179048160729991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.026698276960531</v>
+        <v>0.3454384098997423</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01275286051059865</v>
+        <v>0.05207333258267965</v>
       </c>
       <c r="E9">
-        <v>0.2947455947991173</v>
+        <v>0.02494976240875724</v>
       </c>
       <c r="F9">
-        <v>2.601315201593337</v>
+        <v>3.652067756411441</v>
       </c>
       <c r="G9">
-        <v>0.6879473461296328</v>
+        <v>0.0007458675740428523</v>
       </c>
       <c r="H9">
-        <v>1.358805754294707</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.12024279944356</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.03977943295224762</v>
       </c>
       <c r="K9">
-        <v>3.452438288182108</v>
+        <v>3.703890810076501</v>
       </c>
       <c r="L9">
-        <v>1.123362485201326</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>1.361831103191804</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>2.469429876830873</v>
+      </c>
+      <c r="N9">
+        <v>0.7230455295829827</v>
+      </c>
+      <c r="O9">
+        <v>2.858044608068738</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.226201591403878</v>
+        <v>0.4103384776724965</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01613937866228454</v>
+        <v>0.06279281710880724</v>
       </c>
       <c r="E10">
-        <v>0.3424738097173616</v>
+        <v>0.02471844615866592</v>
       </c>
       <c r="F10">
-        <v>3.175945233801485</v>
+        <v>4.341008985671749</v>
       </c>
       <c r="G10">
-        <v>0.8457624554662431</v>
+        <v>0.000725320955284356</v>
       </c>
       <c r="H10">
-        <v>1.654357732059026</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.0854214401157587</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.03863612081604728</v>
       </c>
       <c r="K10">
-        <v>4.151971092813994</v>
+        <v>4.486144488628327</v>
       </c>
       <c r="L10">
-        <v>1.361855579303878</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1.642436644460886</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>2.983442478095483</v>
+      </c>
+      <c r="N10">
+        <v>0.6488516590307611</v>
+      </c>
+      <c r="O10">
+        <v>3.418057753517871</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.3182189249857</v>
+        <v>0.4402662670767796</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01809751369588497</v>
+        <v>0.06805254464462962</v>
       </c>
       <c r="E11">
-        <v>0.3648302262385101</v>
+        <v>0.0246481089946935</v>
       </c>
       <c r="F11">
-        <v>3.454598943774442</v>
+        <v>4.677367934338434</v>
       </c>
       <c r="G11">
-        <v>0.9223540767846714</v>
+        <v>0.000715950729586642</v>
       </c>
       <c r="H11">
-        <v>1.798366344153109</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.0715916297939394</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.0382866821498169</v>
       </c>
       <c r="K11">
-        <v>4.478814087920398</v>
+        <v>4.855327295882631</v>
       </c>
       <c r="L11">
-        <v>1.474225884395295</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1.773703651513841</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>3.226225589272943</v>
+      </c>
+      <c r="N11">
+        <v>0.6171372257296781</v>
+      </c>
+      <c r="O11">
+        <v>3.691451081712671</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.353285617441543</v>
+        <v>0.4516666499996091</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01891148148252952</v>
+        <v>0.07011385981325446</v>
       </c>
       <c r="E12">
-        <v>0.3734138410813301</v>
+        <v>0.02462734251157639</v>
       </c>
       <c r="F12">
-        <v>3.563099711177159</v>
+        <v>4.80871876632969</v>
       </c>
       <c r="G12">
-        <v>0.9521892753616612</v>
+        <v>0.0007123902225495406</v>
       </c>
       <c r="H12">
-        <v>1.854548865128066</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.06667862145926451</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.03818203581371193</v>
       </c>
       <c r="K12">
-        <v>4.604112870022135</v>
+        <v>4.997493382936938</v>
       </c>
       <c r="L12">
-        <v>1.517457657557301</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1.824045110673239</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>3.319743176211247</v>
+      </c>
+      <c r="N12">
+        <v>0.6054426340347874</v>
+      </c>
+      <c r="O12">
+        <v>3.798217908149724</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.345722808984959</v>
+        <v>0.4492082163118454</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01873273053048763</v>
+        <v>0.06966655796581733</v>
       </c>
       <c r="E13">
-        <v>0.3715595106516005</v>
+        <v>0.02463153788035177</v>
       </c>
       <c r="F13">
-        <v>3.53959058513064</v>
+        <v>4.780240732182676</v>
       </c>
       <c r="G13">
-        <v>0.9457242063567008</v>
+        <v>0.0007131577445472074</v>
       </c>
       <c r="H13">
-        <v>1.842370649692427</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.06772169619610491</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.03820328600653511</v>
       </c>
       <c r="K13">
-        <v>4.577054249238955</v>
+        <v>4.966762062518001</v>
       </c>
       <c r="L13">
-        <v>1.508114515479079</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1.813172981642523</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>3.299526853973546</v>
+      </c>
+      <c r="N13">
+        <v>0.6079468774340455</v>
+      </c>
+      <c r="O13">
+        <v>3.775069571559072</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.321099186615157</v>
+        <v>0.4412027757143591</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.01816294671262497</v>
+        <v>0.06822064120006388</v>
       </c>
       <c r="E14">
-        <v>0.3655338825296397</v>
+        <v>0.02464627720798329</v>
       </c>
       <c r="F14">
-        <v>3.463462430592699</v>
+        <v>4.688090116628047</v>
       </c>
       <c r="G14">
-        <v>0.9247910649945794</v>
+        <v>0.0007156581062215812</v>
       </c>
       <c r="H14">
-        <v>1.802953693947188</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.07118071898005773</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.03827749806312397</v>
       </c>
       <c r="K14">
-        <v>4.489089961809412</v>
+        <v>4.866973096475903</v>
       </c>
       <c r="L14">
-        <v>1.47776819091888</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1.777831857165324</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>3.233885757844035</v>
+      </c>
+      <c r="N14">
+        <v>0.6161686536774837</v>
+      </c>
+      <c r="O14">
+        <v>3.700166331505017</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.306046681155948</v>
+        <v>0.4363082821256512</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.01782378674262475</v>
+        <v>0.06734452130243795</v>
       </c>
       <c r="E15">
-        <v>0.3618591807635312</v>
+        <v>0.02465609890197185</v>
       </c>
       <c r="F15">
-        <v>3.417236339581251</v>
+        <v>4.63218588363938</v>
       </c>
       <c r="G15">
-        <v>0.9120818582275092</v>
+        <v>0.0007171877674413291</v>
       </c>
       <c r="H15">
-        <v>1.779033532378961</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.07334280313724628</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.03832666263127038</v>
       </c>
       <c r="K15">
-        <v>4.435418156189769</v>
+        <v>4.806172284558613</v>
       </c>
       <c r="L15">
-        <v>1.459272686852231</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1.756270598574858</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>3.193894298300791</v>
+      </c>
+      <c r="N15">
+        <v>0.6212464600439347</v>
+      </c>
+      <c r="O15">
+        <v>3.654726244759985</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.220216742874499</v>
+        <v>0.4083915248091898</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01602081811567757</v>
+        <v>0.06245795725475034</v>
       </c>
       <c r="E16">
-        <v>0.3410277536898292</v>
+        <v>0.02472381275961277</v>
       </c>
       <c r="F16">
-        <v>3.158122377418096</v>
+        <v>4.319543967364211</v>
       </c>
       <c r="G16">
-        <v>0.8408651075982192</v>
+        <v>0.0007259321340236327</v>
       </c>
       <c r="H16">
-        <v>1.645161165050055</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.08636856887799604</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.03866264708799605</v>
       </c>
       <c r="K16">
-        <v>4.13080827437193</v>
+        <v>4.46232199464302</v>
       </c>
       <c r="L16">
-        <v>1.354599888733944</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1.633940079307877</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2.967779970513405</v>
+      </c>
+      <c r="N16">
+        <v>0.6509670723087595</v>
+      </c>
+      <c r="O16">
+        <v>3.400611138169069</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.167912910531015</v>
+        <v>0.3913752658420577</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01502978821490331</v>
+        <v>0.0595676917429131</v>
       </c>
       <c r="E17">
-        <v>0.3284296092198389</v>
+        <v>0.02477482855392743</v>
       </c>
       <c r="F17">
-        <v>3.003910800748571</v>
+        <v>4.134069109266846</v>
       </c>
       <c r="G17">
-        <v>0.7984981512270366</v>
+        <v>0.0007312847586970975</v>
       </c>
       <c r="H17">
-        <v>1.565663656397945</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.09489756968793772</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.03891453401069711</v>
       </c>
       <c r="K17">
-        <v>3.946338880920194</v>
+        <v>4.255086363691959</v>
       </c>
       <c r="L17">
-        <v>1.291460004063723</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1.559895551832653</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2.831550649069541</v>
+      </c>
+      <c r="N17">
+        <v>0.6697361003855207</v>
+      </c>
+      <c r="O17">
+        <v>3.249857156772251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.137945206942788</v>
+        <v>0.3816254116799485</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01449820664635126</v>
+        <v>0.05794034196159004</v>
       </c>
       <c r="E18">
-        <v>0.3212423834852061</v>
+        <v>0.02480739339836979</v>
       </c>
       <c r="F18">
-        <v>2.916801455547699</v>
+        <v>4.029501998466998</v>
       </c>
       <c r="G18">
-        <v>0.7745718460707423</v>
+        <v>0.0007343618577027717</v>
       </c>
       <c r="H18">
-        <v>1.520819572409067</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.09999008707719437</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.03907525863286132</v>
       </c>
       <c r="K18">
-        <v>3.841028314622662</v>
+        <v>4.13711325163186</v>
       </c>
       <c r="L18">
-        <v>1.255500244753989</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>1.517639841383669</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>2.754017549107132</v>
+      </c>
+      <c r="N18">
+        <v>0.6807217607147322</v>
+      </c>
+      <c r="O18">
+        <v>3.164862752130006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.127817465100094</v>
+        <v>0.378330448910134</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01432448417575927</v>
+        <v>0.05739498122971298</v>
       </c>
       <c r="E19">
-        <v>0.3188183506380042</v>
+        <v>0.02481895017998381</v>
       </c>
       <c r="F19">
-        <v>2.887566868541711</v>
+        <v>3.994441788958767</v>
       </c>
       <c r="G19">
-        <v>0.7665428385429891</v>
+        <v>0.0007354036790058721</v>
       </c>
       <c r="H19">
-        <v>1.505779837312815</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1017454437732468</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.03913231209354429</v>
       </c>
       <c r="K19">
-        <v>3.805499868719039</v>
+        <v>4.097367494650598</v>
       </c>
       <c r="L19">
-        <v>1.243382771598036</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>1.503386793564559</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2.727899425694034</v>
+      </c>
+      <c r="N19">
+        <v>0.6844733634255462</v>
+      </c>
+      <c r="O19">
+        <v>3.136364476956075</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.173468457093776</v>
+        <v>0.3931827370318501</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01513122533456013</v>
+        <v>0.05987164309591009</v>
       </c>
       <c r="E20">
-        <v>0.3297644437737119</v>
+        <v>0.02476905890692882</v>
       </c>
       <c r="F20">
-        <v>3.020159090502005</v>
+        <v>4.153590041809593</v>
       </c>
       <c r="G20">
-        <v>0.8029614943586409</v>
+        <v>0.0007307151854944732</v>
       </c>
       <c r="H20">
-        <v>1.574033313301385</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.09397006810955766</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.03888605927473066</v>
       </c>
       <c r="K20">
-        <v>3.965892123812466</v>
+        <v>4.27701738465214</v>
       </c>
       <c r="L20">
-        <v>1.298143628429102</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1.567742522220001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2.845965440946713</v>
+      </c>
+      <c r="N20">
+        <v>0.6677182692102193</v>
+      </c>
+      <c r="O20">
+        <v>3.265723959525431</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.328325372361661</v>
+        <v>0.4435522592156076</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01832822760264463</v>
+        <v>0.06864332195908673</v>
       </c>
       <c r="E21">
-        <v>0.3673003330236781</v>
+        <v>0.0246417807045749</v>
       </c>
       <c r="F21">
-        <v>3.485737767658577</v>
+        <v>4.715042895137088</v>
       </c>
       <c r="G21">
-        <v>0.930915807149475</v>
+        <v>0.0007149241001127756</v>
       </c>
       <c r="H21">
-        <v>1.814484190871909</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.070155619046814</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.03825492109154638</v>
       </c>
       <c r="K21">
-        <v>4.514883081039073</v>
+        <v>4.896215325770726</v>
       </c>
       <c r="L21">
-        <v>1.48666211616576</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1.788194206803695</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>3.25312059507975</v>
+      </c>
+      <c r="N21">
+        <v>0.6137449777839876</v>
+      </c>
+      <c r="O21">
+        <v>3.722074303287542</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.430849113364104</v>
+        <v>0.4768696381395472</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02084778865728509</v>
+        <v>0.07479097772048249</v>
       </c>
       <c r="E22">
-        <v>0.392534392921597</v>
+        <v>0.02459338064362127</v>
       </c>
       <c r="F22">
-        <v>3.807698585975714</v>
+        <v>5.10560121875011</v>
       </c>
       <c r="G22">
-        <v>1.019474842168364</v>
+        <v>0.0007045270530607166</v>
       </c>
       <c r="H22">
-        <v>1.981415485038895</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.05650084273903833</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.038005673382699</v>
       </c>
       <c r="K22">
-        <v>4.882778050608721</v>
+        <v>5.314960398977234</v>
       </c>
       <c r="L22">
-        <v>1.61390470236789</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.936032626668776</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>3.528618067892509</v>
+      </c>
+      <c r="N22">
+        <v>0.5803190155223135</v>
+      </c>
+      <c r="O22">
+        <v>4.039552789741577</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.375994888790018</v>
+        <v>0.4590477173989171</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01945888463603751</v>
+        <v>0.07146619235869878</v>
       </c>
       <c r="E23">
-        <v>0.3789924289750957</v>
+        <v>0.02461568467143205</v>
       </c>
       <c r="F23">
-        <v>3.63405348925761</v>
+        <v>4.894729316556948</v>
       </c>
       <c r="G23">
-        <v>0.9717037927405414</v>
+        <v>0.000710086586704358</v>
       </c>
       <c r="H23">
-        <v>1.891320930344847</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.06360085277957372</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.03812256889565546</v>
       </c>
       <c r="K23">
-        <v>4.685482125326899</v>
+        <v>5.090007675069302</v>
       </c>
       <c r="L23">
-        <v>1.54557737507416</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1.856741483820471</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>3.380606349971629</v>
+      </c>
+      <c r="N23">
+        <v>0.5979817226627944</v>
+      </c>
+      <c r="O23">
+        <v>3.868132783698428</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.170956478285689</v>
+        <v>0.3923654771380427</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01508524760893692</v>
+        <v>0.05973412088897589</v>
       </c>
       <c r="E24">
-        <v>0.3291607936434744</v>
+        <v>0.02477165734853692</v>
       </c>
       <c r="F24">
-        <v>3.012808450537392</v>
+        <v>4.144758245943365</v>
       </c>
       <c r="G24">
-        <v>0.8009422846802465</v>
+        <v>0.0007309726895760427</v>
       </c>
       <c r="H24">
-        <v>1.570246732459395</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.09438880519647164</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.03889888337152314</v>
       </c>
       <c r="K24">
-        <v>3.957049808500898</v>
+        <v>4.267098760136321</v>
       </c>
       <c r="L24">
-        <v>1.295120911089072</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1.564193938771723</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>2.839446083663347</v>
+      </c>
+      <c r="N24">
+        <v>0.6686299246305083</v>
+      </c>
+      <c r="O24">
+        <v>3.258545398009616</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9541116367242637</v>
+        <v>0.3218417225795633</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01180588327964571</v>
+        <v>0.04838570415751065</v>
       </c>
       <c r="E25">
-        <v>0.2776012426307517</v>
+        <v>0.02506129379293065</v>
       </c>
       <c r="F25">
-        <v>2.402132742790215</v>
+        <v>3.4148786036464</v>
       </c>
       <c r="G25">
-        <v>0.6332777100399625</v>
+        <v>0.00075346328621817</v>
       </c>
       <c r="H25">
-        <v>1.25686870790453</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1346449247878665</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.04033375378960891</v>
       </c>
       <c r="K25">
-        <v>3.200806854058555</v>
+        <v>3.425113848507038</v>
       </c>
       <c r="L25">
-        <v>1.038272864151708</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>1.261048905568458</v>
+        <v>2.286424757663283</v>
+      </c>
+      <c r="N25">
+        <v>0.752043722571436</v>
+      </c>
+      <c r="O25">
+        <v>2.665187957600665</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_53/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2708223701338284</v>
+        <v>1.471831583288207</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04075012876454309</v>
+        <v>0.02709933975297218</v>
       </c>
       <c r="E2">
-        <v>0.02535628458047789</v>
+        <v>0.3537511244513674</v>
       </c>
       <c r="F2">
-        <v>2.925899537223984</v>
+        <v>0.5572516625416881</v>
       </c>
       <c r="G2">
-        <v>0.0007702473711689133</v>
+        <v>0.4719146673499068</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.269337420083275</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.04181183702859315</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>2.831492265651931</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.6724821915614712</v>
       </c>
       <c r="M2">
-        <v>1.897154595592255</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8189944691582056</v>
+        <v>1.600356166316999</v>
       </c>
       <c r="O2">
-        <v>2.267394427647162</v>
+        <v>1.517529476576669</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2366839998619383</v>
+        <v>1.29414953743489</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03587343497491702</v>
+        <v>0.02358244604577209</v>
       </c>
       <c r="E3">
-        <v>0.02559911572752915</v>
+        <v>0.3476215203528348</v>
       </c>
       <c r="F3">
-        <v>2.617109771563662</v>
+        <v>0.4901245864615049</v>
       </c>
       <c r="G3">
-        <v>0.0007818626136732605</v>
+        <v>0.4114882511121891</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.2456047076237411</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04303967912860074</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>2.440607409220334</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.5849789104915573</v>
       </c>
       <c r="M3">
-        <v>1.641224384603603</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8675422172480083</v>
+        <v>1.528945521336098</v>
       </c>
       <c r="O3">
-        <v>2.015941997964319</v>
+        <v>1.339403170892126</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2159018650416158</v>
+        <v>1.185620984463128</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03298610042928729</v>
+        <v>0.0214227793303543</v>
       </c>
       <c r="E4">
-        <v>0.02576733451951441</v>
+        <v>0.3440647513394595</v>
       </c>
       <c r="F4">
-        <v>2.436585178897516</v>
+        <v>0.4496364461546989</v>
       </c>
       <c r="G4">
-        <v>0.000789140548892333</v>
+        <v>0.3750260589009571</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.2314560220983566</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04389485102359636</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>2.204879606011843</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.5312795818473575</v>
       </c>
       <c r="M4">
-        <v>1.487076236638714</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8988369043204116</v>
+        <v>1.486311450213094</v>
       </c>
       <c r="O4">
-        <v>1.868795827023419</v>
+        <v>1.23226503657196</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2074730607305639</v>
+        <v>1.14152216023777</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0318312581743001</v>
+        <v>0.02054245253736298</v>
       </c>
       <c r="E5">
-        <v>0.02584043665848235</v>
+        <v>0.3426688552138764</v>
       </c>
       <c r="F5">
-        <v>2.365031423267169</v>
+        <v>0.4333042739503767</v>
       </c>
       <c r="G5">
-        <v>0.0007921466999015293</v>
+        <v>0.3603127532167036</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.2257897030352183</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.04426743950168266</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>2.109718785406955</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.5093979345079873</v>
       </c>
       <c r="M5">
-        <v>1.424896691092641</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9119525516663636</v>
+        <v>1.469234328727708</v>
       </c>
       <c r="O5">
-        <v>1.810433420107287</v>
+        <v>1.189118876693783</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2060757483935021</v>
+        <v>1.134206840712466</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03164067456304309</v>
+        <v>0.02039625520963639</v>
       </c>
       <c r="E6">
-        <v>0.02585284335257299</v>
+        <v>0.3424403435319086</v>
       </c>
       <c r="F6">
-        <v>2.353264130393086</v>
+        <v>0.4306019661210527</v>
       </c>
       <c r="G6">
-        <v>0.0007926484027300784</v>
+        <v>0.3578779570625557</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.2248546179770585</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.04433072562637541</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>2.093967022131295</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.5057644178803997</v>
       </c>
       <c r="M6">
-        <v>1.414607163484092</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9141520066971403</v>
+        <v>1.466416368818997</v>
       </c>
       <c r="O6">
-        <v>1.800833066277477</v>
+        <v>1.181984150909528</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2157880351720394</v>
+        <v>1.18502575632715</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03297044398663829</v>
+        <v>0.02141090815208457</v>
       </c>
       <c r="E7">
-        <v>0.02576830228165938</v>
+        <v>0.3440457071374503</v>
       </c>
       <c r="F7">
-        <v>2.435612370833937</v>
+        <v>0.4494155289154307</v>
       </c>
       <c r="G7">
-        <v>0.0007891809231415994</v>
+        <v>0.3748270616892597</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.2313792108039507</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.04389978001442252</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>2.203592806384336</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.5309844805626653</v>
       </c>
       <c r="M7">
-        <v>1.486235225612461</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8990123312429574</v>
+        <v>1.486079951746945</v>
       </c>
       <c r="O7">
-        <v>1.868002524093171</v>
+        <v>1.231681134696487</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2590112290916835</v>
+        <v>1.410439013332592</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03904313852343932</v>
+        <v>0.02588666388852801</v>
       </c>
       <c r="E8">
-        <v>0.02543587749431153</v>
+        <v>0.351595619799479</v>
       </c>
       <c r="F8">
-        <v>2.817373075285218</v>
+        <v>0.5339452115213561</v>
       </c>
       <c r="G8">
-        <v>0.0007742242651340414</v>
+        <v>0.4509372103962335</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.261062163287022</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.04221331157870267</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>2.695715242622441</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.6423016199630638</v>
       </c>
       <c r="M8">
-        <v>1.808214376759864</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8354184204923953</v>
+        <v>1.575477005346187</v>
       </c>
       <c r="O8">
-        <v>2.179048160729991</v>
+        <v>1.455618702833874</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3454384098997423</v>
+        <v>1.857756267822225</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.05207333258267965</v>
+        <v>0.03467013369188265</v>
       </c>
       <c r="E9">
-        <v>0.02494976240875724</v>
+        <v>0.3679748232404805</v>
       </c>
       <c r="F9">
-        <v>3.652067756411441</v>
+        <v>0.7062548276863225</v>
       </c>
       <c r="G9">
-        <v>0.0007458675740428523</v>
+        <v>0.6060133615432477</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.3229677836729223</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.03977943295224762</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>3.703890810076501</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.861106550174469</v>
       </c>
       <c r="M9">
-        <v>2.469429876830873</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7230455295829827</v>
+        <v>1.760811814041062</v>
       </c>
       <c r="O9">
-        <v>2.858044608068738</v>
+        <v>1.914764789330064</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4103384776724965</v>
+        <v>2.190784305935551</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.06279281710880724</v>
+        <v>0.0411407781747215</v>
       </c>
       <c r="E10">
-        <v>0.02471844615866592</v>
+        <v>0.3808757766542428</v>
       </c>
       <c r="F10">
-        <v>4.341008985671749</v>
+        <v>0.8379847508091274</v>
       </c>
       <c r="G10">
-        <v>0.000725320955284356</v>
+        <v>0.7246081020654032</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.3712070485078982</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.03863612081604728</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>4.486144488628327</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1.022621821902931</v>
       </c>
       <c r="M10">
-        <v>2.983442478095483</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6488516590307611</v>
+        <v>1.903710072486859</v>
       </c>
       <c r="O10">
-        <v>3.418057753517871</v>
+        <v>2.267701825089546</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4402662670767796</v>
+        <v>2.343517116544717</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.06805254464462962</v>
+        <v>0.04409143315663044</v>
       </c>
       <c r="E11">
-        <v>0.0246481089946935</v>
+        <v>0.3869125903257995</v>
       </c>
       <c r="F11">
-        <v>4.677367934338434</v>
+        <v>0.8992987065235951</v>
       </c>
       <c r="G11">
-        <v>0.000715950729586642</v>
+        <v>0.7798360985105575</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.393870947549118</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0382866821498169</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>4.855327295882631</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1.096372448826401</v>
       </c>
       <c r="M11">
-        <v>3.226225589272943</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6171372257296781</v>
+        <v>1.97032836571708</v>
       </c>
       <c r="O11">
-        <v>3.691451081712671</v>
+        <v>2.432461384711416</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4516666499996091</v>
+        <v>2.401555021853198</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.07011385981325446</v>
+        <v>0.0452100656745742</v>
       </c>
       <c r="E12">
-        <v>0.02462734251157639</v>
+        <v>0.3892209591725901</v>
       </c>
       <c r="F12">
-        <v>4.80871876632969</v>
+        <v>0.9227406237738194</v>
       </c>
       <c r="G12">
-        <v>0.0007123902225495406</v>
+        <v>0.8009568894758701</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.4025673409554145</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.03818203581371193</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>4.997493382936938</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1.124349099059458</v>
       </c>
       <c r="M12">
-        <v>3.319743176211247</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6054426340347874</v>
+        <v>1.995799842377522</v>
       </c>
       <c r="O12">
-        <v>3.798217908149724</v>
+        <v>2.495528709619606</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4492082163118454</v>
+        <v>2.389046176097452</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.06966655796581733</v>
+        <v>0.04496908674878597</v>
       </c>
       <c r="E13">
-        <v>0.02463153788035177</v>
+        <v>0.3887228456541081</v>
       </c>
       <c r="F13">
-        <v>4.780240732182676</v>
+        <v>0.9176816421969392</v>
       </c>
       <c r="G13">
-        <v>0.0007131577445472074</v>
+        <v>0.7963985476148565</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.4006891670780988</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.03820328600653511</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>4.966762062518001</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1.118321499417988</v>
       </c>
       <c r="M13">
-        <v>3.299526853973546</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6079468774340455</v>
+        <v>1.990303016971382</v>
       </c>
       <c r="O13">
-        <v>3.775069571559072</v>
+        <v>2.481914752750612</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4412027757143591</v>
+        <v>2.348287755206172</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.06822064120006388</v>
+        <v>0.04418343645724576</v>
       </c>
       <c r="E14">
-        <v>0.02464627720798329</v>
+        <v>0.3871020636894542</v>
       </c>
       <c r="F14">
-        <v>4.688090116628047</v>
+        <v>0.9012226620692161</v>
       </c>
       <c r="G14">
-        <v>0.0007156581062215812</v>
+        <v>0.7815694278265113</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.3945840556244491</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.03827749806312397</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>4.866973096475903</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1.098673070015082</v>
       </c>
       <c r="M14">
-        <v>3.233885757844035</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6161686536774837</v>
+        <v>1.972418942616912</v>
       </c>
       <c r="O14">
-        <v>3.700166331505017</v>
+        <v>2.43763598614936</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4363082821256512</v>
+        <v>2.323348985899884</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.06734452130243795</v>
+        <v>0.04370237810584143</v>
       </c>
       <c r="E15">
-        <v>0.02465609890197185</v>
+        <v>0.3861121449904843</v>
       </c>
       <c r="F15">
-        <v>4.63218588363938</v>
+        <v>0.8911709249316146</v>
       </c>
       <c r="G15">
-        <v>0.0007171877674413291</v>
+        <v>0.7725138599438282</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.3908596807040112</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.03832666263127038</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>4.806172284558613</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1.086644489616305</v>
       </c>
       <c r="M15">
-        <v>3.193894298300791</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6212464600439347</v>
+        <v>1.961496669862044</v>
       </c>
       <c r="O15">
-        <v>3.654726244759985</v>
+        <v>2.41060426855077</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4083915248091898</v>
+        <v>2.180829712279774</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.06245795725475034</v>
+        <v>0.04094811104673113</v>
       </c>
       <c r="E16">
-        <v>0.02472381275961277</v>
+        <v>0.3804844853503369</v>
       </c>
       <c r="F16">
-        <v>4.319543967364211</v>
+        <v>0.8340076989713339</v>
       </c>
       <c r="G16">
-        <v>0.0007259321340236327</v>
+        <v>0.7210265046631577</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.3697412777086839</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.03866264708799605</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>4.46232199464302</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1.017808372954249</v>
       </c>
       <c r="M16">
-        <v>2.967779970513405</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6509670723087595</v>
+        <v>1.899389929873252</v>
       </c>
       <c r="O16">
-        <v>3.400611138169069</v>
+        <v>2.257025049562799</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3913752658420577</v>
+        <v>2.093731691615858</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.0595676917429131</v>
+        <v>0.03926046119291726</v>
       </c>
       <c r="E17">
-        <v>0.02477482855392743</v>
+        <v>0.3770738780521157</v>
       </c>
       <c r="F17">
-        <v>4.134069109266846</v>
+        <v>0.7993122167168707</v>
       </c>
       <c r="G17">
-        <v>0.0007312847586970975</v>
+        <v>0.6897842207014406</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.3569774292466263</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.03891453401069711</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>4.255086363691959</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.9756567363542956</v>
       </c>
       <c r="M17">
-        <v>2.831550649069541</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6697361003855207</v>
+        <v>1.861711334009982</v>
       </c>
       <c r="O17">
-        <v>3.249857156772251</v>
+        <v>2.163935926532645</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3816254116799485</v>
+        <v>2.043750116942078</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.05794034196159004</v>
+        <v>0.03829042387555148</v>
       </c>
       <c r="E18">
-        <v>0.02480739339836979</v>
+        <v>0.3751281212201789</v>
       </c>
       <c r="F18">
-        <v>4.029501998466998</v>
+        <v>0.7794855404209216</v>
       </c>
       <c r="G18">
-        <v>0.0007343618577027717</v>
+        <v>0.6719333495212965</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.3497030575479414</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.03907525863286132</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>4.13711325163186</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.9514376691033135</v>
       </c>
       <c r="M18">
-        <v>2.754017549107132</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6807217607147322</v>
+        <v>1.840190636852299</v>
       </c>
       <c r="O18">
-        <v>3.164862752130006</v>
+        <v>2.110784907396209</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.378330448910134</v>
+        <v>2.026846260417642</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.05739498122971298</v>
+        <v>0.03796209067807865</v>
       </c>
       <c r="E19">
-        <v>0.02481895017998381</v>
+        <v>0.374472112632894</v>
       </c>
       <c r="F19">
-        <v>3.994441788958767</v>
+        <v>0.772794066751274</v>
       </c>
       <c r="G19">
-        <v>0.0007354036790058721</v>
+        <v>0.6659090837759436</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.3472512869174693</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.03913231209354429</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>4.097367494650598</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.9432416118915228</v>
       </c>
       <c r="M19">
-        <v>2.727899425694034</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6844733634255462</v>
+        <v>1.832929668281736</v>
       </c>
       <c r="O19">
-        <v>3.136364476956075</v>
+        <v>2.092854008619213</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3931827370318501</v>
+        <v>2.102991367703908</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.05987164309591009</v>
+        <v>0.03944004487149755</v>
       </c>
       <c r="E20">
-        <v>0.02476905890692882</v>
+        <v>0.3774353068775227</v>
       </c>
       <c r="F20">
-        <v>4.153590041809593</v>
+        <v>0.8029920658609342</v>
       </c>
       <c r="G20">
-        <v>0.0007307151854944732</v>
+        <v>0.6930975498090248</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.3583291483441258</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.03888605927473066</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>4.27701738465214</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.9801411533481144</v>
       </c>
       <c r="M20">
-        <v>2.845965440946713</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6677182692102193</v>
+        <v>1.865706564679073</v>
       </c>
       <c r="O20">
-        <v>3.265723959525431</v>
+        <v>2.173804414045605</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4435522592156076</v>
+        <v>2.360253832853687</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.06864332195908673</v>
+        <v>0.044414164006362</v>
       </c>
       <c r="E21">
-        <v>0.0246417807045749</v>
+        <v>0.3875775345407604</v>
       </c>
       <c r="F21">
-        <v>4.715042895137088</v>
+        <v>0.9060507949834005</v>
       </c>
       <c r="G21">
-        <v>0.0007149241001127756</v>
+        <v>0.7859192839803626</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.3963740909219808</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.03825492109154638</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>4.896215325770726</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1.104442886849796</v>
       </c>
       <c r="M21">
-        <v>3.25312059507975</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6137449777839876</v>
+        <v>1.977665186482568</v>
       </c>
       <c r="O21">
-        <v>3.722074303287542</v>
+        <v>2.450622778641105</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4768696381395472</v>
+        <v>2.529575175080254</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.07479097772048249</v>
+        <v>0.04767265297248002</v>
       </c>
       <c r="E22">
-        <v>0.02459338064362127</v>
+        <v>0.3943355120761041</v>
       </c>
       <c r="F22">
-        <v>5.10560121875011</v>
+        <v>0.9747215758003023</v>
       </c>
       <c r="G22">
-        <v>0.0007045270530607166</v>
+        <v>0.8478031039066991</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.421909005401389</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.038005673382699</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>5.314960398977234</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1.185970982949755</v>
       </c>
       <c r="M22">
-        <v>3.528618067892509</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5803190155223135</v>
+        <v>2.05226864091054</v>
       </c>
       <c r="O22">
-        <v>4.039552789741577</v>
+        <v>2.635519477805929</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4590477173989171</v>
+        <v>2.439088530568426</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.07146619235869878</v>
+        <v>0.04593274909228739</v>
       </c>
       <c r="E23">
-        <v>0.02461568467143205</v>
+        <v>0.3907174203321375</v>
       </c>
       <c r="F23">
-        <v>4.894729316556948</v>
+        <v>0.9379419428659617</v>
       </c>
       <c r="G23">
-        <v>0.000710086586704358</v>
+        <v>0.81465482768877</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.4082155027846284</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.03812256889565546</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>5.090007675069302</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1.142428185668393</v>
       </c>
       <c r="M23">
-        <v>3.380606349971629</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5979817226627944</v>
+        <v>2.01231595913822</v>
       </c>
       <c r="O23">
-        <v>3.868132783698428</v>
+        <v>2.536447462841465</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3923654771380427</v>
+        <v>2.098804782600155</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.05973412088897589</v>
+        <v>0.03935885443969056</v>
       </c>
       <c r="E24">
-        <v>0.02477165734853692</v>
+        <v>0.3772718579014409</v>
       </c>
       <c r="F24">
-        <v>4.144758245943365</v>
+        <v>0.801328033393105</v>
       </c>
       <c r="G24">
-        <v>0.0007309726895760427</v>
+        <v>0.6915992505478101</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.3577178384118156</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.03889888337152314</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>4.267098760136321</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.9781137040349961</v>
       </c>
       <c r="M24">
-        <v>2.839446083663347</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6686299246305083</v>
+        <v>1.863899881938522</v>
       </c>
       <c r="O24">
-        <v>3.258545398009616</v>
+        <v>2.169341732574082</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3218417225795633</v>
+        <v>1.736063883364096</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.04838570415751065</v>
+        <v>0.03229193327354096</v>
       </c>
       <c r="E25">
-        <v>0.02506129379293065</v>
+        <v>0.3633847133708841</v>
       </c>
       <c r="F25">
-        <v>3.4148786036464</v>
+        <v>0.6588259612307183</v>
       </c>
       <c r="G25">
-        <v>0.00075346328621817</v>
+        <v>0.5633273390805442</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.3057748483582827</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.04033375378960891</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>3.425113848507038</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.8018149667187799</v>
       </c>
       <c r="M25">
-        <v>2.286424757663283</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.752043722571436</v>
+        <v>1.70953881637007</v>
       </c>
       <c r="O25">
-        <v>2.665187957600665</v>
+        <v>1.788073377040945</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_53/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.471831583288207</v>
+        <v>1.03863476054525</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02709933975297218</v>
+        <v>0.008436957273197265</v>
       </c>
       <c r="E2">
-        <v>0.3537511244513674</v>
+        <v>0.5149716421402282</v>
       </c>
       <c r="F2">
-        <v>0.5572516625416881</v>
+        <v>0.3786870749330831</v>
       </c>
       <c r="G2">
-        <v>0.4719146673499068</v>
+        <v>0.2471652642554574</v>
       </c>
       <c r="H2">
-        <v>0.269337420083275</v>
+        <v>0.3599890557817389</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.6724821915614712</v>
+        <v>0.2346600967121191</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.600356166316999</v>
+        <v>1.536221915440194</v>
       </c>
       <c r="O2">
-        <v>1.517529476576669</v>
+        <v>1.129660440777883</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.29414953743489</v>
+        <v>0.9896902276415176</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02358244604577209</v>
+        <v>0.007347719088468097</v>
       </c>
       <c r="E3">
-        <v>0.3476215203528348</v>
+        <v>0.5152697082145643</v>
       </c>
       <c r="F3">
-        <v>0.4901245864615049</v>
+        <v>0.3635543690312915</v>
       </c>
       <c r="G3">
-        <v>0.4114882511121891</v>
+        <v>0.2326764080411863</v>
       </c>
       <c r="H3">
-        <v>0.2456047076237411</v>
+        <v>0.3566495377782672</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.5849789104915573</v>
+        <v>0.2075716459574011</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.528945521336098</v>
+        <v>1.517045385650164</v>
       </c>
       <c r="O3">
-        <v>1.339403170892126</v>
+        <v>1.091669330473252</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.185620984463128</v>
+        <v>0.9599708089972694</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0214227793303543</v>
+        <v>0.006677667548334654</v>
       </c>
       <c r="E4">
-        <v>0.3440647513394595</v>
+        <v>0.5156377326705623</v>
       </c>
       <c r="F4">
-        <v>0.4496364461546989</v>
+        <v>0.3545305629466426</v>
       </c>
       <c r="G4">
-        <v>0.3750260589009571</v>
+        <v>0.2239665933931008</v>
       </c>
       <c r="H4">
-        <v>0.2314560220983566</v>
+        <v>0.35481175322154</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5312795818473575</v>
+        <v>0.1909186671224319</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.486311450213094</v>
+        <v>1.505885600044309</v>
       </c>
       <c r="O4">
-        <v>1.23226503657196</v>
+        <v>1.069172406452282</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.14152216023777</v>
+        <v>0.9479445523829213</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02054245253736298</v>
+        <v>0.006404317409852922</v>
       </c>
       <c r="E5">
-        <v>0.3426688552138764</v>
+        <v>0.5158345712925154</v>
       </c>
       <c r="F5">
-        <v>0.4333042739503767</v>
+        <v>0.3509205666361481</v>
       </c>
       <c r="G5">
-        <v>0.3603127532167036</v>
+        <v>0.2204640078322342</v>
       </c>
       <c r="H5">
-        <v>0.2257897030352183</v>
+        <v>0.354116347192786</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5093979345079873</v>
+        <v>0.1841277135008568</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.469234328727708</v>
+        <v>1.501493579141538</v>
       </c>
       <c r="O5">
-        <v>1.189118876693783</v>
+        <v>1.060213128225797</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.134206840712466</v>
+        <v>0.9459527430903165</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02039625520963639</v>
+        <v>0.006358910281953456</v>
       </c>
       <c r="E6">
-        <v>0.3424403435319086</v>
+        <v>0.5158700968585848</v>
       </c>
       <c r="F6">
-        <v>0.4306019661210527</v>
+        <v>0.3503251915554841</v>
       </c>
       <c r="G6">
-        <v>0.3578779570625557</v>
+        <v>0.2198852247870349</v>
       </c>
       <c r="H6">
-        <v>0.2248546179770585</v>
+        <v>0.354004107861229</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5057644178803997</v>
+        <v>0.1829998081578879</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.466416368818997</v>
+        <v>1.500773723218629</v>
       </c>
       <c r="O6">
-        <v>1.181984150909528</v>
+        <v>1.058738026431996</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.18502575632715</v>
+        <v>0.9598082746578882</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02141090815208457</v>
+        <v>0.006673982239131959</v>
       </c>
       <c r="E7">
-        <v>0.3440457071374503</v>
+        <v>0.5156401970915248</v>
       </c>
       <c r="F7">
-        <v>0.4494155289154307</v>
+        <v>0.3544816049311734</v>
       </c>
       <c r="G7">
-        <v>0.3748270616892597</v>
+        <v>0.2239191672558576</v>
       </c>
       <c r="H7">
-        <v>0.2313792108039507</v>
+        <v>0.3548021580595844</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5309844805626653</v>
+        <v>0.1908271005115836</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.486079951746945</v>
+        <v>1.505825735876215</v>
       </c>
       <c r="O7">
-        <v>1.231681134696487</v>
+        <v>1.06905073502304</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.410439013332592</v>
+        <v>1.021690200742086</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02588666388852801</v>
+        <v>0.008061658204475464</v>
       </c>
       <c r="E8">
-        <v>0.351595619799479</v>
+        <v>0.5150362210099715</v>
       </c>
       <c r="F8">
-        <v>0.5339452115213561</v>
+        <v>0.3734137158926387</v>
       </c>
       <c r="G8">
-        <v>0.4509372103962335</v>
+        <v>0.242130731686288</v>
       </c>
       <c r="H8">
-        <v>0.261062163287022</v>
+        <v>0.3587934571548033</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.6423016199630638</v>
+        <v>0.225324522076221</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.575477005346187</v>
+        <v>1.529482927875094</v>
       </c>
       <c r="O8">
-        <v>1.455618702833874</v>
+        <v>1.116388721575078</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.857756267822225</v>
+        <v>1.145644080625999</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03467013369188265</v>
+        <v>0.01077231353330177</v>
       </c>
       <c r="E9">
-        <v>0.3679748232404805</v>
+        <v>0.5153050863985058</v>
       </c>
       <c r="F9">
-        <v>0.7062548276863225</v>
+        <v>0.4126684142082411</v>
       </c>
       <c r="G9">
-        <v>0.6060133615432477</v>
+        <v>0.2793308307415003</v>
       </c>
       <c r="H9">
-        <v>0.3229677836729223</v>
+        <v>0.3683079259542836</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.861106550174469</v>
+        <v>0.2927946133380317</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.760811814041062</v>
+        <v>1.580706909472894</v>
       </c>
       <c r="O9">
-        <v>1.914764789330064</v>
+        <v>1.215819927545766</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.190784305935551</v>
+        <v>1.238261259267802</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0411407781747215</v>
+        <v>0.01275674202575772</v>
       </c>
       <c r="E10">
-        <v>0.3808757766542428</v>
+        <v>0.5163693156351812</v>
       </c>
       <c r="F10">
-        <v>0.8379847508091274</v>
+        <v>0.442816398869553</v>
       </c>
       <c r="G10">
-        <v>0.7246081020654032</v>
+        <v>0.3075828245487742</v>
       </c>
       <c r="H10">
-        <v>0.3712070485078982</v>
+        <v>0.3763282297441464</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.022621821902931</v>
+        <v>0.3422387495918713</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.903710072486859</v>
+        <v>1.621232702405536</v>
       </c>
       <c r="O10">
-        <v>2.267701825089546</v>
+        <v>1.292930142125414</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.343517116544717</v>
+        <v>1.280723766144604</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04409143315663044</v>
+        <v>0.01365784338958065</v>
       </c>
       <c r="E11">
-        <v>0.3869125903257995</v>
+        <v>0.5170376187554808</v>
       </c>
       <c r="F11">
-        <v>0.8992987065235951</v>
+        <v>0.4568176881553114</v>
       </c>
       <c r="G11">
-        <v>0.7798360985105575</v>
+        <v>0.3206386259047918</v>
       </c>
       <c r="H11">
-        <v>0.393870947549118</v>
+        <v>0.3802008831299162</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.096372448826401</v>
+        <v>0.3647014958215493</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.97032836571708</v>
+        <v>1.640285799000338</v>
       </c>
       <c r="O11">
-        <v>2.432461384711416</v>
+        <v>1.328898443853916</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.401555021853198</v>
+        <v>1.29684987764432</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.0452100656745742</v>
+        <v>0.01399881819674675</v>
       </c>
       <c r="E12">
-        <v>0.3892209591725901</v>
+        <v>0.5173168306369504</v>
       </c>
       <c r="F12">
-        <v>0.9227406237738194</v>
+        <v>0.4621609571321841</v>
       </c>
       <c r="G12">
-        <v>0.8009568894758701</v>
+        <v>0.3256120169456977</v>
       </c>
       <c r="H12">
-        <v>0.4025673409554145</v>
+        <v>0.3816995921180393</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.124349099059458</v>
+        <v>0.3732029073025558</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.995799842377522</v>
+        <v>1.64758852066646</v>
       </c>
       <c r="O12">
-        <v>2.495528709619606</v>
+        <v>1.342647160183475</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.389046176097452</v>
+        <v>1.293374780284637</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04496908674878597</v>
+        <v>0.01392539471449794</v>
       </c>
       <c r="E13">
-        <v>0.3887228456541081</v>
+        <v>0.5172555402554693</v>
       </c>
       <c r="F13">
-        <v>0.9176816421969392</v>
+        <v>0.4610083517972328</v>
       </c>
       <c r="G13">
-        <v>0.7963985476148565</v>
+        <v>0.3245395966613103</v>
       </c>
       <c r="H13">
-        <v>0.4006891670780988</v>
+        <v>0.3813753856435653</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.118321499417988</v>
+        <v>0.3713721948245166</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.990303016971382</v>
+        <v>1.646011864571278</v>
       </c>
       <c r="O13">
-        <v>2.481914752750612</v>
+        <v>1.339680417967713</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.348287755206172</v>
+        <v>1.282049545442305</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04418343645724576</v>
+        <v>0.01368590076567244</v>
       </c>
       <c r="E14">
-        <v>0.3871020636894542</v>
+        <v>0.5170600677707782</v>
       </c>
       <c r="F14">
-        <v>0.9012226620692161</v>
+        <v>0.4572564544836837</v>
       </c>
       <c r="G14">
-        <v>0.7815694278265113</v>
+        <v>0.3210471989604144</v>
       </c>
       <c r="H14">
-        <v>0.3945840556244491</v>
+        <v>0.3803235371995299</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.098673070015082</v>
+        <v>0.3654010098690321</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.972418942616912</v>
+        <v>1.640884846372671</v>
       </c>
       <c r="O14">
-        <v>2.43763598614936</v>
+        <v>1.330026986260037</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.323348985899884</v>
+        <v>1.275118534489195</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04370237810584143</v>
+        <v>0.01353917032933794</v>
       </c>
       <c r="E15">
-        <v>0.3861121449904843</v>
+        <v>0.5169437292183545</v>
       </c>
       <c r="F15">
-        <v>0.8911709249316146</v>
+        <v>0.4549636866689184</v>
       </c>
       <c r="G15">
-        <v>0.7725138599438282</v>
+        <v>0.318911842681004</v>
       </c>
       <c r="H15">
-        <v>0.3908596807040112</v>
+        <v>0.3796834450276094</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.086644489616305</v>
+        <v>0.3617428547322561</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.961496669862044</v>
+        <v>1.637755791969965</v>
       </c>
       <c r="O15">
-        <v>2.41060426855077</v>
+        <v>1.324130696536713</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.180829712279774</v>
+        <v>1.235492795718926</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04094811104673113</v>
+        <v>0.01269781860538188</v>
       </c>
       <c r="E16">
-        <v>0.3804844853503369</v>
+        <v>0.5163293171134029</v>
       </c>
       <c r="F16">
-        <v>0.8340076989713339</v>
+        <v>0.4419071567337625</v>
       </c>
       <c r="G16">
-        <v>0.7210265046631577</v>
+        <v>0.3067337101222876</v>
       </c>
       <c r="H16">
-        <v>0.3697412777086839</v>
+        <v>0.3760796522959424</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.017808372954249</v>
+        <v>0.3407701187480541</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.899389929873252</v>
+        <v>1.61999987350481</v>
       </c>
       <c r="O16">
-        <v>2.257025049562799</v>
+        <v>1.290597469358318</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.093731691615858</v>
+        <v>1.211267592253932</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03926046119291726</v>
+        <v>0.01218124682207389</v>
       </c>
       <c r="E17">
-        <v>0.3770738780521157</v>
+        <v>0.5159993222552899</v>
       </c>
       <c r="F17">
-        <v>0.7993122167168707</v>
+        <v>0.4339708894050887</v>
       </c>
       <c r="G17">
-        <v>0.6897842207014406</v>
+        <v>0.2993151203060762</v>
       </c>
       <c r="H17">
-        <v>0.3569774292466263</v>
+        <v>0.3739262472385292</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.9756567363542956</v>
+        <v>0.3278960907086059</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.861711334009982</v>
+        <v>1.609264618155748</v>
       </c>
       <c r="O17">
-        <v>2.163935926532645</v>
+        <v>1.270254174459325</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.043750116942078</v>
+        <v>1.197365065181998</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03829042387555148</v>
+        <v>0.01188397657399065</v>
       </c>
       <c r="E18">
-        <v>0.3751281212201789</v>
+        <v>0.5158268743520509</v>
       </c>
       <c r="F18">
-        <v>0.7794855404209216</v>
+        <v>0.4294331529382873</v>
       </c>
       <c r="G18">
-        <v>0.6719333495212965</v>
+        <v>0.2950673211381201</v>
       </c>
       <c r="H18">
-        <v>0.3497030575479414</v>
+        <v>0.3727087672600646</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.9514376691033135</v>
+        <v>0.3204885291794142</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.840190636852299</v>
+        <v>1.603148190019425</v>
       </c>
       <c r="O18">
-        <v>2.110784907396209</v>
+        <v>1.258637050714782</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.026846260417642</v>
+        <v>1.192663293525527</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03796209067807865</v>
+        <v>0.01178330047947185</v>
       </c>
       <c r="E19">
-        <v>0.374472112632894</v>
+        <v>0.5157714779664886</v>
       </c>
       <c r="F19">
-        <v>0.772794066751274</v>
+        <v>0.4279013884203948</v>
       </c>
       <c r="G19">
-        <v>0.6659090837759436</v>
+        <v>0.2936323790067945</v>
       </c>
       <c r="H19">
-        <v>0.3472512869174693</v>
+        <v>0.3723001742043408</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.9432416118915228</v>
+        <v>0.3179799965706991</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.832929668281736</v>
+        <v>1.601087303263512</v>
       </c>
       <c r="O19">
-        <v>2.092854008619213</v>
+        <v>1.254718077434688</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.102991367703908</v>
+        <v>1.213843188173087</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03944004487149755</v>
+        <v>0.0122362526209443</v>
       </c>
       <c r="E20">
-        <v>0.3774353068775227</v>
+        <v>0.5160326569508129</v>
       </c>
       <c r="F20">
-        <v>0.8029920658609342</v>
+        <v>0.4348129244716006</v>
       </c>
       <c r="G20">
-        <v>0.6930975498090248</v>
+        <v>0.3001028560937584</v>
       </c>
       <c r="H20">
-        <v>0.3583291483441258</v>
+        <v>0.3741532970626196</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.9801411533481144</v>
+        <v>0.3292668422222391</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.865706564679073</v>
+        <v>1.610401388217838</v>
       </c>
       <c r="O20">
-        <v>2.173804414045605</v>
+        <v>1.272411077954501</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.360253832853687</v>
+        <v>1.285374788238414</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.044414164006362</v>
+        <v>0.01375625295535343</v>
       </c>
       <c r="E21">
-        <v>0.3875775345407604</v>
+        <v>0.5171167760872137</v>
       </c>
       <c r="F21">
-        <v>0.9060507949834005</v>
+        <v>0.4583573569118755</v>
       </c>
       <c r="G21">
-        <v>0.7859192839803626</v>
+        <v>0.3220722007222889</v>
       </c>
       <c r="H21">
-        <v>0.3963740909219808</v>
+        <v>0.3806316163049814</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.104442886849796</v>
+        <v>0.3671550241861326</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.977665186482568</v>
+        <v>1.642388403702682</v>
       </c>
       <c r="O21">
-        <v>2.450622778641105</v>
+        <v>1.332858949130269</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.529575175080254</v>
+        <v>1.332395272710528</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04767265297248002</v>
+        <v>0.01474817910423809</v>
       </c>
       <c r="E22">
-        <v>0.3943355120761041</v>
+        <v>0.5179775154936621</v>
       </c>
       <c r="F22">
-        <v>0.9747215758003023</v>
+        <v>0.4739856596437448</v>
       </c>
       <c r="G22">
-        <v>0.8478031039066991</v>
+        <v>0.3366021099320875</v>
       </c>
       <c r="H22">
-        <v>0.421909005401389</v>
+        <v>0.3850533622054826</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.185970982949755</v>
+        <v>0.3918892729243737</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.05226864091054</v>
+        <v>1.663804607876614</v>
       </c>
       <c r="O22">
-        <v>2.635519477805929</v>
+        <v>1.373113076142573</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.439088530568426</v>
+        <v>1.307275152946033</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04593274909228739</v>
+        <v>0.01421891135288433</v>
       </c>
       <c r="E23">
-        <v>0.3907174203321375</v>
+        <v>0.5175043094843161</v>
       </c>
       <c r="F23">
-        <v>0.9379419428659617</v>
+        <v>0.46562250775591</v>
       </c>
       <c r="G23">
-        <v>0.81465482768877</v>
+        <v>0.328831472855498</v>
       </c>
       <c r="H23">
-        <v>0.4082155027846284</v>
+        <v>0.3826762162462671</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.142428185668393</v>
+        <v>0.3786908474932034</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.01231595913822</v>
+        <v>1.652327995009927</v>
       </c>
       <c r="O23">
-        <v>2.536447462841465</v>
+        <v>1.351560172271263</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.098804782600155</v>
+        <v>1.212678683723368</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03935885443969056</v>
+        <v>0.01221138538932109</v>
       </c>
       <c r="E24">
-        <v>0.3772718579014409</v>
+        <v>0.5160175325133949</v>
       </c>
       <c r="F24">
-        <v>0.801328033393105</v>
+        <v>0.4344321627684451</v>
       </c>
       <c r="G24">
-        <v>0.6915992505478101</v>
+        <v>0.2997466670321529</v>
       </c>
       <c r="H24">
-        <v>0.3577178384118156</v>
+        <v>0.3740505838496375</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.9781137040349961</v>
+        <v>0.3286471444639574</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.863899881938522</v>
+        <v>1.609887281781766</v>
       </c>
       <c r="O24">
-        <v>2.169341732574082</v>
+        <v>1.271435697357703</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.736063883364096</v>
+        <v>1.111836574486034</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03229193327354096</v>
+        <v>0.01004020773459757</v>
       </c>
       <c r="E25">
-        <v>0.3633847133708841</v>
+        <v>0.5150787647469741</v>
       </c>
       <c r="F25">
-        <v>0.6588259612307183</v>
+        <v>0.4018200518247284</v>
       </c>
       <c r="G25">
-        <v>0.5633273390805442</v>
+        <v>0.2691064982479503</v>
       </c>
       <c r="H25">
-        <v>0.3057748483582827</v>
+        <v>0.3655532158409329</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.8018149667187799</v>
+        <v>0.2745631029248727</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.70953881637007</v>
+        <v>1.56633779501081</v>
       </c>
       <c r="O25">
-        <v>1.788073377040945</v>
+        <v>1.18821091226701</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_53/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.03863476054525</v>
+        <v>1.47183158328798</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.008436957273197265</v>
+        <v>0.02709933975297218</v>
       </c>
       <c r="E2">
-        <v>0.5149716421402282</v>
+        <v>0.353751124451378</v>
       </c>
       <c r="F2">
-        <v>0.3786870749330831</v>
+        <v>0.5572516625416881</v>
       </c>
       <c r="G2">
-        <v>0.2471652642554574</v>
+        <v>0.4719146673498926</v>
       </c>
       <c r="H2">
-        <v>0.3599890557817389</v>
+        <v>0.269337420083275</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2346600967121191</v>
+        <v>0.6724821915614143</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.536221915440194</v>
+        <v>1.600356166317027</v>
       </c>
       <c r="O2">
-        <v>1.129660440777883</v>
+        <v>1.517529476576613</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9896902276415176</v>
+        <v>1.294149537435288</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.007347719088468097</v>
+        <v>0.02358244604588577</v>
       </c>
       <c r="E3">
-        <v>0.5152697082145643</v>
+        <v>0.3476215203528774</v>
       </c>
       <c r="F3">
-        <v>0.3635543690312915</v>
+        <v>0.4901245864615049</v>
       </c>
       <c r="G3">
-        <v>0.2326764080411863</v>
+        <v>0.4114882511121181</v>
       </c>
       <c r="H3">
-        <v>0.3566495377782672</v>
+        <v>0.2456047076237695</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2075716459574011</v>
+        <v>0.5849789104916283</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.517045385650164</v>
+        <v>1.528945521336098</v>
       </c>
       <c r="O3">
-        <v>1.091669330473252</v>
+        <v>1.339403170892126</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9599708089972694</v>
+        <v>1.185620984463242</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.006677667548334654</v>
+        <v>0.02142277933024062</v>
       </c>
       <c r="E4">
-        <v>0.5156377326705623</v>
+        <v>0.3440647513394843</v>
       </c>
       <c r="F4">
-        <v>0.3545305629466426</v>
+        <v>0.4496364461546989</v>
       </c>
       <c r="G4">
-        <v>0.2239665933931008</v>
+        <v>0.3750260589009855</v>
       </c>
       <c r="H4">
-        <v>0.35481175322154</v>
+        <v>0.2314560220982287</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1909186671224319</v>
+        <v>0.5312795818472154</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.505885600044309</v>
+        <v>1.486311450213137</v>
       </c>
       <c r="O4">
-        <v>1.069172406452282</v>
+        <v>1.232265036571988</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9479445523829213</v>
+        <v>1.141522160237656</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.006404317409852922</v>
+        <v>0.02054245253713916</v>
       </c>
       <c r="E5">
-        <v>0.5158345712925154</v>
+        <v>0.3426688552138586</v>
       </c>
       <c r="F5">
-        <v>0.3509205666361481</v>
+        <v>0.4333042739503696</v>
       </c>
       <c r="G5">
-        <v>0.2204640078322342</v>
+        <v>0.3603127532166468</v>
       </c>
       <c r="H5">
-        <v>0.354116347192786</v>
+        <v>0.2257897030352183</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1841277135008568</v>
+        <v>0.5093979345079163</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.501493579141538</v>
+        <v>1.469234328727666</v>
       </c>
       <c r="O5">
-        <v>1.060213128225797</v>
+        <v>1.189118876693868</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9459527430903165</v>
+        <v>1.134206840712409</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006358910281953456</v>
+        <v>0.02039625521002009</v>
       </c>
       <c r="E6">
-        <v>0.5158700968585848</v>
+        <v>0.3424403435319086</v>
       </c>
       <c r="F6">
-        <v>0.3503251915554841</v>
+        <v>0.4306019661210385</v>
       </c>
       <c r="G6">
-        <v>0.2198852247870349</v>
+        <v>0.357877957062442</v>
       </c>
       <c r="H6">
-        <v>0.354004107861229</v>
+        <v>0.2248546179770585</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1829998081578879</v>
+        <v>0.5057644178803997</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.500773723218629</v>
+        <v>1.466416368818997</v>
       </c>
       <c r="O6">
-        <v>1.058738026431996</v>
+        <v>1.181984150909642</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9598082746578882</v>
+        <v>1.18502575632715</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.006673982239131959</v>
+        <v>0.02141090815197444</v>
       </c>
       <c r="E7">
-        <v>0.5156401970915248</v>
+        <v>0.3440457071374787</v>
       </c>
       <c r="F7">
-        <v>0.3544816049311734</v>
+        <v>0.4494155289154307</v>
       </c>
       <c r="G7">
-        <v>0.2239191672558576</v>
+        <v>0.3748270616892597</v>
       </c>
       <c r="H7">
-        <v>0.3548021580595844</v>
+        <v>0.2313792108039507</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1908271005115836</v>
+        <v>0.5309844805626653</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.505825735876215</v>
+        <v>1.486079951746973</v>
       </c>
       <c r="O7">
-        <v>1.06905073502304</v>
+        <v>1.23168113469643</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.021690200742086</v>
+        <v>1.410439013332763</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.008061658204475464</v>
+        <v>0.02588666388847827</v>
       </c>
       <c r="E8">
-        <v>0.5150362210099715</v>
+        <v>0.3515956197995003</v>
       </c>
       <c r="F8">
-        <v>0.3734137158926387</v>
+        <v>0.5339452115213561</v>
       </c>
       <c r="G8">
-        <v>0.242130731686288</v>
+        <v>0.4509372103962619</v>
       </c>
       <c r="H8">
-        <v>0.3587934571548033</v>
+        <v>0.261062163287022</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.225324522076221</v>
+        <v>0.6423016199631775</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.529482927875094</v>
+        <v>1.575477005346201</v>
       </c>
       <c r="O8">
-        <v>1.116388721575078</v>
+        <v>1.455618702833874</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.145644080625999</v>
+        <v>1.857756267822367</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01077231353330177</v>
+        <v>0.03467013369176186</v>
       </c>
       <c r="E9">
-        <v>0.5153050863985058</v>
+        <v>0.367974823240516</v>
       </c>
       <c r="F9">
-        <v>0.4126684142082411</v>
+        <v>0.7062548276863225</v>
       </c>
       <c r="G9">
-        <v>0.2793308307415003</v>
+        <v>0.6060133615432477</v>
       </c>
       <c r="H9">
-        <v>0.3683079259542836</v>
+        <v>0.3229677836729223</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2927946133380317</v>
+        <v>0.8611065501744122</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.580706909472894</v>
+        <v>1.760811814041091</v>
       </c>
       <c r="O9">
-        <v>1.215819927545766</v>
+        <v>1.914764789330007</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.238261259267802</v>
+        <v>2.190784305935381</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01275674202575772</v>
+        <v>0.04114077817460782</v>
       </c>
       <c r="E10">
-        <v>0.5163693156351812</v>
+        <v>0.3808757766542783</v>
       </c>
       <c r="F10">
-        <v>0.442816398869553</v>
+        <v>0.8379847508091274</v>
       </c>
       <c r="G10">
-        <v>0.3075828245487742</v>
+        <v>0.7246081020654458</v>
       </c>
       <c r="H10">
-        <v>0.3763282297441464</v>
+        <v>0.3712070485078982</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3422387495918713</v>
+        <v>1.022621821902817</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.621232702405536</v>
+        <v>1.903710072486888</v>
       </c>
       <c r="O10">
-        <v>1.292930142125414</v>
+        <v>2.267701825089574</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.280723766144604</v>
+        <v>2.343517116544717</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01365784338958065</v>
+        <v>0.04409143315647412</v>
       </c>
       <c r="E11">
-        <v>0.5170376187554808</v>
+        <v>0.3869125903257924</v>
       </c>
       <c r="F11">
-        <v>0.4568176881553114</v>
+        <v>0.8992987065235809</v>
       </c>
       <c r="G11">
-        <v>0.3206386259047918</v>
+        <v>0.7798360985105148</v>
       </c>
       <c r="H11">
-        <v>0.3802008831299162</v>
+        <v>0.3938709475489901</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3647014958215493</v>
+        <v>1.096372448826571</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.640285799000338</v>
+        <v>1.970328365716938</v>
       </c>
       <c r="O11">
-        <v>1.328898443853916</v>
+        <v>2.432461384711445</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.29684987764432</v>
+        <v>2.401555021853198</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01399881819674675</v>
+        <v>0.04521006567463104</v>
       </c>
       <c r="E12">
-        <v>0.5173168306369504</v>
+        <v>0.3892209591726257</v>
       </c>
       <c r="F12">
-        <v>0.4621609571321841</v>
+        <v>0.9227406237738194</v>
       </c>
       <c r="G12">
-        <v>0.3256120169456977</v>
+        <v>0.8009568894758559</v>
       </c>
       <c r="H12">
-        <v>0.3816995921180393</v>
+        <v>0.4025673409552866</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3732029073025558</v>
+        <v>1.124349099059458</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.64758852066646</v>
+        <v>1.995799842377551</v>
       </c>
       <c r="O12">
-        <v>1.342647160183475</v>
+        <v>2.495528709619634</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.293374780284637</v>
+        <v>2.389046176097452</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01392539471449794</v>
+        <v>0.0449690867488215</v>
       </c>
       <c r="E13">
-        <v>0.5172555402554693</v>
+        <v>0.3887228456541223</v>
       </c>
       <c r="F13">
-        <v>0.4610083517972328</v>
+        <v>0.9176816421969676</v>
       </c>
       <c r="G13">
-        <v>0.3245395966613103</v>
+        <v>0.7963985476149418</v>
       </c>
       <c r="H13">
-        <v>0.3813753856435653</v>
+        <v>0.4006891670780846</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3713721948245166</v>
+        <v>1.118321499417988</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.646011864571278</v>
+        <v>1.990303016971495</v>
       </c>
       <c r="O13">
-        <v>1.339680417967713</v>
+        <v>2.481914752750527</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.282049545442305</v>
+        <v>2.348287755206229</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.01368590076567244</v>
+        <v>0.04418343645719602</v>
       </c>
       <c r="E14">
-        <v>0.5170600677707782</v>
+        <v>0.3871020636894542</v>
       </c>
       <c r="F14">
-        <v>0.4572564544836837</v>
+        <v>0.9012226620692161</v>
       </c>
       <c r="G14">
-        <v>0.3210471989604144</v>
+        <v>0.7815694278265113</v>
       </c>
       <c r="H14">
-        <v>0.3803235371995299</v>
+        <v>0.3945840556244349</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3654010098690321</v>
+        <v>1.098673070015138</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.640884846372671</v>
+        <v>1.972418942616912</v>
       </c>
       <c r="O14">
-        <v>1.330026986260037</v>
+        <v>2.437635986149303</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.275118534489195</v>
+        <v>2.323348985899941</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.01353917032933794</v>
+        <v>0.04370237810595512</v>
       </c>
       <c r="E15">
-        <v>0.5169437292183545</v>
+        <v>0.3861121449904914</v>
       </c>
       <c r="F15">
-        <v>0.4549636866689184</v>
+        <v>0.8911709249316146</v>
       </c>
       <c r="G15">
-        <v>0.318911842681004</v>
+        <v>0.7725138599438282</v>
       </c>
       <c r="H15">
-        <v>0.3796834450276094</v>
+        <v>0.3908596807040112</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3617428547322561</v>
+        <v>1.086644489616219</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.637755791969965</v>
+        <v>1.961496669862044</v>
       </c>
       <c r="O15">
-        <v>1.324130696536713</v>
+        <v>2.41060426855077</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.235492795718926</v>
+        <v>2.180829712279433</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01269781860538188</v>
+        <v>0.04094811104678087</v>
       </c>
       <c r="E16">
-        <v>0.5163293171134029</v>
+        <v>0.3804844853503866</v>
       </c>
       <c r="F16">
-        <v>0.4419071567337625</v>
+        <v>0.8340076989713481</v>
       </c>
       <c r="G16">
-        <v>0.3067337101222876</v>
+        <v>0.7210265046631577</v>
       </c>
       <c r="H16">
-        <v>0.3760796522959424</v>
+        <v>0.3697412777086555</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3407701187480541</v>
+        <v>1.017808372954249</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.61999987350481</v>
+        <v>1.899389929873365</v>
       </c>
       <c r="O16">
-        <v>1.290597469358318</v>
+        <v>2.257025049562714</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.211267592253932</v>
+        <v>2.093731691615801</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01218124682207389</v>
+        <v>0.03926046119292437</v>
       </c>
       <c r="E17">
-        <v>0.5159993222552899</v>
+        <v>0.3770738780521015</v>
       </c>
       <c r="F17">
-        <v>0.4339708894050887</v>
+        <v>0.7993122167168991</v>
       </c>
       <c r="G17">
-        <v>0.2993151203060762</v>
+        <v>0.6897842207014264</v>
       </c>
       <c r="H17">
-        <v>0.3739262472385292</v>
+        <v>0.3569774292466263</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3278960907086059</v>
+        <v>0.9756567363542956</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.609264618155748</v>
+        <v>1.86171133401001</v>
       </c>
       <c r="O17">
-        <v>1.270254174459325</v>
+        <v>2.163935926532673</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.197365065181998</v>
+        <v>2.043750116942306</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01188397657399065</v>
+        <v>0.03829042387538806</v>
       </c>
       <c r="E18">
-        <v>0.5158268743520509</v>
+        <v>0.3751281212202002</v>
       </c>
       <c r="F18">
-        <v>0.4294331529382873</v>
+        <v>0.7794855404209358</v>
       </c>
       <c r="G18">
-        <v>0.2950673211381201</v>
+        <v>0.6719333495213107</v>
       </c>
       <c r="H18">
-        <v>0.3727087672600646</v>
+        <v>0.3497030575479272</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3204885291794142</v>
+        <v>0.9514376691032851</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.603148190019425</v>
+        <v>1.840190636852299</v>
       </c>
       <c r="O18">
-        <v>1.258637050714782</v>
+        <v>2.110784907396209</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.192663293525527</v>
+        <v>2.026846260417642</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01178330047947185</v>
+        <v>0.03796209067796497</v>
       </c>
       <c r="E19">
-        <v>0.5157714779664886</v>
+        <v>0.3744721126328585</v>
       </c>
       <c r="F19">
-        <v>0.4279013884203948</v>
+        <v>0.772794066751274</v>
       </c>
       <c r="G19">
-        <v>0.2936323790067945</v>
+        <v>0.665909083775972</v>
       </c>
       <c r="H19">
-        <v>0.3723001742043408</v>
+        <v>0.3472512869174693</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3179799965706991</v>
+        <v>0.9432416118914375</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.601087303263512</v>
+        <v>1.832929668281622</v>
       </c>
       <c r="O19">
-        <v>1.254718077434688</v>
+        <v>2.092854008619156</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.213843188173087</v>
+        <v>2.102991367704192</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.0122362526209443</v>
+        <v>0.0394400448714407</v>
       </c>
       <c r="E20">
-        <v>0.5160326569508129</v>
+        <v>0.3774353068775156</v>
       </c>
       <c r="F20">
-        <v>0.4348129244716006</v>
+        <v>0.8029920658609342</v>
       </c>
       <c r="G20">
-        <v>0.3001028560937584</v>
+        <v>0.6930975498090106</v>
       </c>
       <c r="H20">
-        <v>0.3741532970626196</v>
+        <v>0.3583291483441258</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3292668422222391</v>
+        <v>0.9801411533481996</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.610401388217838</v>
+        <v>1.865706564679186</v>
       </c>
       <c r="O20">
-        <v>1.272411077954501</v>
+        <v>2.173804414045605</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.285374788238414</v>
+        <v>2.360253832853743</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01375625295535343</v>
+        <v>0.04441416400625542</v>
       </c>
       <c r="E21">
-        <v>0.5171167760872137</v>
+        <v>0.3875775345407604</v>
       </c>
       <c r="F21">
-        <v>0.4583573569118755</v>
+        <v>0.9060507949834005</v>
       </c>
       <c r="G21">
-        <v>0.3220722007222889</v>
+        <v>0.7859192839803626</v>
       </c>
       <c r="H21">
-        <v>0.3806316163049814</v>
+        <v>0.3963740909219524</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3671550241861326</v>
+        <v>1.104442886849853</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.642388403702682</v>
+        <v>1.977665186482568</v>
       </c>
       <c r="O21">
-        <v>1.332858949130269</v>
+        <v>2.450622778641105</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.332395272710528</v>
+        <v>2.529575175080652</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01474817910423809</v>
+        <v>0.04767265297252976</v>
       </c>
       <c r="E22">
-        <v>0.5179775154936621</v>
+        <v>0.394335512076097</v>
       </c>
       <c r="F22">
-        <v>0.4739856596437448</v>
+        <v>0.9747215758003023</v>
       </c>
       <c r="G22">
-        <v>0.3366021099320875</v>
+        <v>0.8478031039066991</v>
       </c>
       <c r="H22">
-        <v>0.3850533622054826</v>
+        <v>0.421909005401389</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3918892729243737</v>
+        <v>1.185970982949925</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.663804607876614</v>
+        <v>2.05226864091054</v>
       </c>
       <c r="O22">
-        <v>1.373113076142573</v>
+        <v>2.635519477805929</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.307275152946033</v>
+        <v>2.439088530568426</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01421891135288433</v>
+        <v>0.04593274909233713</v>
       </c>
       <c r="E23">
-        <v>0.5175043094843161</v>
+        <v>0.3907174203321517</v>
       </c>
       <c r="F23">
-        <v>0.46562250775591</v>
+        <v>0.9379419428659617</v>
       </c>
       <c r="G23">
-        <v>0.328831472855498</v>
+        <v>0.8146548276887415</v>
       </c>
       <c r="H23">
-        <v>0.3826762162462671</v>
+        <v>0.4082155027846284</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3786908474932034</v>
+        <v>1.142428185668393</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.652327995009927</v>
+        <v>2.01231595913822</v>
       </c>
       <c r="O23">
-        <v>1.351560172271263</v>
+        <v>2.536447462841494</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.212678683723368</v>
+        <v>2.098804782599927</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01221138538932109</v>
+        <v>0.03935885443986109</v>
       </c>
       <c r="E24">
-        <v>0.5160175325133949</v>
+        <v>0.3772718579014338</v>
       </c>
       <c r="F24">
-        <v>0.4344321627684451</v>
+        <v>0.8013280333931192</v>
       </c>
       <c r="G24">
-        <v>0.2997466670321529</v>
+        <v>0.6915992505478386</v>
       </c>
       <c r="H24">
-        <v>0.3740505838496375</v>
+        <v>0.3577178384119151</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3286471444639574</v>
+        <v>0.9781137040349677</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.609887281781766</v>
+        <v>1.863899881938636</v>
       </c>
       <c r="O24">
-        <v>1.271435697357703</v>
+        <v>2.169341732573969</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.111836574486034</v>
+        <v>1.736063883364096</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01004020773459757</v>
+        <v>0.03229193327343438</v>
       </c>
       <c r="E25">
-        <v>0.5150787647469741</v>
+        <v>0.3633847133708343</v>
       </c>
       <c r="F25">
-        <v>0.4018200518247284</v>
+        <v>0.6588259612307041</v>
       </c>
       <c r="G25">
-        <v>0.2691064982479503</v>
+        <v>0.5633273390805158</v>
       </c>
       <c r="H25">
-        <v>0.3655532158409329</v>
+        <v>0.3057748483582827</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2745631029248727</v>
+        <v>0.8018149667186947</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.56633779501081</v>
+        <v>1.709538816370042</v>
       </c>
       <c r="O25">
-        <v>1.18821091226701</v>
+        <v>1.788073377040917</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_53/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.47183158328798</v>
+        <v>0.2364951824248607</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02709933975297218</v>
+        <v>0.1794668331480551</v>
       </c>
       <c r="E2">
-        <v>0.353751124451378</v>
+        <v>0.1275212047405034</v>
       </c>
       <c r="F2">
-        <v>0.5572516625416881</v>
+        <v>0.6189005202101185</v>
       </c>
       <c r="G2">
-        <v>0.4719146673498926</v>
+        <v>0.3365027091678527</v>
       </c>
       <c r="H2">
-        <v>0.269337420083275</v>
+        <v>3.710273594137448E-05</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.005213285326252759</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2893668893905215</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2606120247335753</v>
       </c>
       <c r="L2">
-        <v>0.6724821915614143</v>
+        <v>0.1292870680748521</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.492395655035637</v>
       </c>
       <c r="N2">
-        <v>1.600356166317027</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.517529476576613</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.4316174366138057</v>
+      </c>
+      <c r="P2">
+        <v>0.883633924758449</v>
+      </c>
+      <c r="Q2">
+        <v>1.267832821856061</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.294149537435288</v>
+        <v>0.2058703940122655</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02358244604588577</v>
+        <v>0.1633581572339153</v>
       </c>
       <c r="E3">
-        <v>0.3476215203528774</v>
+        <v>0.1179882075633572</v>
       </c>
       <c r="F3">
-        <v>0.4901245864615049</v>
+        <v>0.5889142819329862</v>
       </c>
       <c r="G3">
-        <v>0.4114882511121181</v>
+        <v>0.3190923634242608</v>
       </c>
       <c r="H3">
-        <v>0.2456047076237695</v>
+        <v>0.0003407161109303392</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.006120805840734267</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.28511133520486</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2692449856193981</v>
       </c>
       <c r="L3">
-        <v>0.5849789104916283</v>
+        <v>0.1209608365970425</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.307041524945447</v>
       </c>
       <c r="N3">
-        <v>1.528945521336098</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.339403170892126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.3768113023654678</v>
+      </c>
+      <c r="P3">
+        <v>0.9002682387529397</v>
+      </c>
+      <c r="Q3">
+        <v>1.221743749630249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.185620984463242</v>
+        <v>0.1866458140231373</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02142277933024062</v>
+        <v>0.1534997979513832</v>
       </c>
       <c r="E4">
-        <v>0.3440647513394843</v>
+        <v>0.1121188193180025</v>
       </c>
       <c r="F4">
-        <v>0.4496364461546989</v>
+        <v>0.5709793314120333</v>
       </c>
       <c r="G4">
-        <v>0.3750260589009855</v>
+        <v>0.3087658337096428</v>
       </c>
       <c r="H4">
-        <v>0.2314560220982287</v>
+        <v>0.0006938165219347869</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.006771855983820796</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.282751794039001</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2747331146777574</v>
       </c>
       <c r="L4">
-        <v>0.5312795818472154</v>
+        <v>0.1158002276872772</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1.193457360883798</v>
       </c>
       <c r="N4">
-        <v>1.486311450213137</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.232265036571988</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.3432336503344118</v>
+      </c>
+      <c r="P4">
+        <v>0.9111456226812642</v>
+      </c>
+      <c r="Q4">
+        <v>1.19473848323311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.141522160237656</v>
+        <v>0.1778151710997662</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02054245253713916</v>
+        <v>0.1495094654778768</v>
       </c>
       <c r="E5">
-        <v>0.3426688552138586</v>
+        <v>0.1097070673112555</v>
       </c>
       <c r="F5">
-        <v>0.4333042739503696</v>
+        <v>0.5635522772188466</v>
       </c>
       <c r="G5">
-        <v>0.3603127532166468</v>
+        <v>0.3044536760203655</v>
       </c>
       <c r="H5">
-        <v>0.2257897030352183</v>
+        <v>0.0008778875629945615</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.007142697157481503</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2817507021425456</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.2768949470461712</v>
       </c>
       <c r="L5">
-        <v>0.5093979345079163</v>
+        <v>0.1136505570153261</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1.148347188252984</v>
       </c>
       <c r="N5">
-        <v>1.469234328727666</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.189118876693868</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.32980331905285</v>
+      </c>
+      <c r="P5">
+        <v>0.9159400543253398</v>
+      </c>
+      <c r="Q5">
+        <v>1.183428415528851</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.134206840712409</v>
+        <v>0.1752519577609348</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02039625521002009</v>
+        <v>0.1488714392465909</v>
       </c>
       <c r="E6">
-        <v>0.3424403435319086</v>
+        <v>0.1092875872754888</v>
       </c>
       <c r="F6">
-        <v>0.4306019661210385</v>
+        <v>0.5620408754822535</v>
       </c>
       <c r="G6">
-        <v>0.357877957062442</v>
+        <v>0.3035094919040517</v>
       </c>
       <c r="H6">
-        <v>0.2248546179770585</v>
+        <v>0.0009110698666422445</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.007313802843320616</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2814642971415822</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.2771109225951705</v>
       </c>
       <c r="L6">
-        <v>0.5057644178803997</v>
+        <v>0.1132513330120695</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1.14224394071536</v>
       </c>
       <c r="N6">
-        <v>1.466416368818997</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.181984150909642</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.3278646054551189</v>
+      </c>
+      <c r="P6">
+        <v>0.916991996565617</v>
+      </c>
+      <c r="Q6">
+        <v>1.180815016628671</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.18502575632715</v>
+        <v>0.1835342500846053</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02141090815197444</v>
+        <v>0.1535119726894578</v>
       </c>
       <c r="E7">
-        <v>0.3440457071374787</v>
+        <v>0.1120352876501975</v>
       </c>
       <c r="F7">
-        <v>0.4494155289154307</v>
+        <v>0.5701018144699646</v>
       </c>
       <c r="G7">
-        <v>0.3748270616892597</v>
+        <v>0.3080711652975054</v>
       </c>
       <c r="H7">
-        <v>0.2313792108039507</v>
+        <v>0.0006967275270690632</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.007056574539946681</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2824007985001202</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.2743681072926663</v>
       </c>
       <c r="L7">
-        <v>0.5309844805626653</v>
+        <v>0.1156581294052295</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1.196639691791546</v>
       </c>
       <c r="N7">
-        <v>1.486079951746973</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.23168113469643</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.3438471968495449</v>
+      </c>
+      <c r="P7">
+        <v>0.9118990447093154</v>
+      </c>
+      <c r="Q7">
+        <v>1.192530067832251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.410439013332763</v>
+        <v>0.2220256128986762</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02588666388847827</v>
+        <v>0.1739929851949995</v>
       </c>
       <c r="E8">
-        <v>0.3515956197995003</v>
+        <v>0.1241700510927934</v>
       </c>
       <c r="F8">
-        <v>0.5339452115213561</v>
+        <v>0.6074364870336311</v>
       </c>
       <c r="G8">
-        <v>0.4509372103962619</v>
+        <v>0.3295837708709257</v>
       </c>
       <c r="H8">
-        <v>0.261062163287022</v>
+        <v>0.0001062812365835164</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.005846155770417916</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2874037971853554</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.2630551632685272</v>
       </c>
       <c r="L8">
-        <v>0.6423016199631775</v>
+        <v>0.1262766840256049</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.433490082324738</v>
       </c>
       <c r="N8">
-        <v>1.575477005346201</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.455618702833874</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.4137609046474395</v>
+      </c>
+      <c r="P8">
+        <v>0.8902212655695791</v>
+      </c>
+      <c r="Q8">
+        <v>1.248963508203872</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.857756267822367</v>
+        <v>0.2994540870488578</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03467013369176186</v>
+        <v>0.2143364846567266</v>
       </c>
       <c r="E9">
-        <v>0.367974823240516</v>
+        <v>0.1479578659641376</v>
       </c>
       <c r="F9">
-        <v>0.7062548276863225</v>
+        <v>0.6860723312742252</v>
       </c>
       <c r="G9">
-        <v>0.6060133615432477</v>
+        <v>0.3760103649668025</v>
       </c>
       <c r="H9">
-        <v>0.3229677836729223</v>
+        <v>0.0003612087803563924</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.003811430786720749</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2999178900665385</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.2430492628035763</v>
       </c>
       <c r="L9">
-        <v>0.8611065501744122</v>
+        <v>0.1469484423189158</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.893375440244853</v>
       </c>
       <c r="N9">
-        <v>1.760811814041091</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.914764789330007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.5501519295630928</v>
+      </c>
+      <c r="P9">
+        <v>0.8517954443295253</v>
+      </c>
+      <c r="Q9">
+        <v>1.374219347876789</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.190784305935381</v>
+        <v>0.353586807594823</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04114077817460782</v>
+        <v>0.2390116586070263</v>
       </c>
       <c r="E10">
-        <v>0.3808757766542783</v>
+        <v>0.159406014792463</v>
       </c>
       <c r="F10">
-        <v>0.8379847508091274</v>
+        <v>0.7364396433837541</v>
       </c>
       <c r="G10">
-        <v>0.7246081020654458</v>
+        <v>0.4068927096985675</v>
       </c>
       <c r="H10">
-        <v>0.3712070485078982</v>
+        <v>0.001624906840581808</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.002977335305849316</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3078308894939852</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.2288132061054959</v>
       </c>
       <c r="L10">
-        <v>1.022621821902817</v>
+        <v>0.1549370715462288</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>2.228594498747469</v>
       </c>
       <c r="N10">
-        <v>1.903710072486888</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>2.267701825089574</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.6396900503853828</v>
+      </c>
+      <c r="P10">
+        <v>0.8303520216934288</v>
+      </c>
+      <c r="Q10">
+        <v>1.45668103061422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.343517116544717</v>
+        <v>0.3822663467137488</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04409143315647412</v>
+        <v>0.2066639747619377</v>
       </c>
       <c r="E11">
-        <v>0.3869125903257924</v>
+        <v>0.1183572235962558</v>
       </c>
       <c r="F11">
-        <v>0.8992987065235809</v>
+        <v>0.6746964125210866</v>
       </c>
       <c r="G11">
-        <v>0.7798360985105148</v>
+        <v>0.3764715789623807</v>
       </c>
       <c r="H11">
-        <v>0.3938709475489901</v>
+        <v>0.0200960001613204</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.003242621685171088</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2893683059739232</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2196059004320609</v>
       </c>
       <c r="L11">
-        <v>1.096372448826571</v>
+        <v>0.1093199062928427</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2.328846871048171</v>
       </c>
       <c r="N11">
-        <v>1.970328365716938</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2.432461384711445</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.5823218698816817</v>
+      </c>
+      <c r="P11">
+        <v>0.8496828598864212</v>
+      </c>
+      <c r="Q11">
+        <v>1.3536837167496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.401555021853198</v>
+        <v>0.4006175394142986</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04521006567463104</v>
+        <v>0.1763773691777146</v>
       </c>
       <c r="E12">
-        <v>0.3892209591726257</v>
+        <v>0.08911773185973892</v>
       </c>
       <c r="F12">
-        <v>0.9227406237738194</v>
+        <v>0.6147770126696486</v>
       </c>
       <c r="G12">
-        <v>0.8009568894758559</v>
+        <v>0.345759531980022</v>
       </c>
       <c r="H12">
-        <v>0.4025673409552866</v>
+        <v>0.05857001223562008</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.00316152050986318</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2727121560195371</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.2157330500284043</v>
       </c>
       <c r="L12">
-        <v>1.124349099059458</v>
+        <v>0.08472488398438038</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>2.335203771383618</v>
       </c>
       <c r="N12">
-        <v>1.995799842377551</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2.495528709619634</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.5166733635329592</v>
+      </c>
+      <c r="P12">
+        <v>0.8719377130466626</v>
+      </c>
+      <c r="Q12">
+        <v>1.253745512403867</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.389046176097452</v>
+        <v>0.4072060649752416</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0449690867488215</v>
+        <v>0.1461641018208724</v>
       </c>
       <c r="E13">
-        <v>0.3887228456541223</v>
+        <v>0.06720686669714659</v>
       </c>
       <c r="F13">
-        <v>0.9176816421969676</v>
+        <v>0.5516699911843972</v>
       </c>
       <c r="G13">
-        <v>0.7963985476149418</v>
+        <v>0.3120436136092408</v>
       </c>
       <c r="H13">
-        <v>0.4006891670780846</v>
+        <v>0.114019416777424</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.003201985896942539</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2559246098597683</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2150921817322993</v>
       </c>
       <c r="L13">
-        <v>1.118321499417988</v>
+        <v>0.07450406989925296</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>2.275610932658651</v>
       </c>
       <c r="N13">
-        <v>1.990303016971495</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>2.481914752750527</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.4425662544608855</v>
+      </c>
+      <c r="P13">
+        <v>0.8982725650794379</v>
+      </c>
+      <c r="Q13">
+        <v>1.147084458872399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.348287755206229</v>
+        <v>0.4055037199797198</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04418343645719602</v>
+        <v>0.1255617360522265</v>
       </c>
       <c r="E14">
-        <v>0.3871020636894542</v>
+        <v>0.05629203176982767</v>
       </c>
       <c r="F14">
-        <v>0.9012226620692161</v>
+        <v>0.5064968867276178</v>
       </c>
       <c r="G14">
-        <v>0.7815694278265113</v>
+        <v>0.2872263068994698</v>
       </c>
       <c r="H14">
-        <v>0.3945840556244349</v>
+        <v>0.1631328567515453</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.003374035024794608</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.24415148955012</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2161158420492031</v>
       </c>
       <c r="L14">
-        <v>1.098673070015138</v>
+        <v>0.07583044063257738</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>2.205408615018939</v>
       </c>
       <c r="N14">
-        <v>1.972418942616912</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>2.437635986149303</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.3879802011476059</v>
+      </c>
+      <c r="P14">
+        <v>0.9190148550929393</v>
+      </c>
+      <c r="Q14">
+        <v>1.069761298735372</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.323348985899941</v>
+        <v>0.4011573428162905</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04370237810595512</v>
+        <v>0.1203214924983911</v>
       </c>
       <c r="E15">
-        <v>0.3861121449904914</v>
+        <v>0.05420005430644004</v>
       </c>
       <c r="F15">
-        <v>0.8911709249316146</v>
+        <v>0.4944498340348531</v>
       </c>
       <c r="G15">
-        <v>0.7725138599438282</v>
+        <v>0.2803166369011763</v>
       </c>
       <c r="H15">
-        <v>0.3908596807040112</v>
+        <v>0.1755452356615308</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.003568673611851203</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.241154895933839</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2169808608637567</v>
       </c>
       <c r="L15">
-        <v>1.086644489616219</v>
+        <v>0.0771878540234372</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>2.176029161271032</v>
       </c>
       <c r="N15">
-        <v>1.961496669862044</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>2.41060426855077</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.3728764739757437</v>
+      </c>
+      <c r="P15">
+        <v>0.9250443526504526</v>
+      </c>
+      <c r="Q15">
+        <v>1.048805965933923</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.180829712279433</v>
+        <v>0.3744329096734447</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04094811104678087</v>
+        <v>0.1166352129584212</v>
       </c>
       <c r="E16">
-        <v>0.3804844853503866</v>
+        <v>0.05424088403834837</v>
       </c>
       <c r="F16">
-        <v>0.8340076989713481</v>
+        <v>0.4859591150359748</v>
       </c>
       <c r="G16">
-        <v>0.7210265046631577</v>
+        <v>0.2737601053459997</v>
       </c>
       <c r="H16">
-        <v>0.3697412777086555</v>
+        <v>0.1623437168021695</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.004046890114735469</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2409662222123004</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2226540543793405</v>
       </c>
       <c r="L16">
-        <v>1.017808372954249</v>
+        <v>0.0759414605417934</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>2.047152036031008</v>
       </c>
       <c r="N16">
-        <v>1.899389929873365</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>2.257025049562714</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.3519585381527008</v>
+      </c>
+      <c r="P16">
+        <v>0.9271081765064366</v>
+      </c>
+      <c r="Q16">
+        <v>1.03433610869439</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.093731691615801</v>
+        <v>0.3547509940051015</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03926046119292437</v>
+        <v>0.1244194217362917</v>
       </c>
       <c r="E17">
-        <v>0.3770738780521015</v>
+        <v>0.05929331047279351</v>
       </c>
       <c r="F17">
-        <v>0.7993122167168991</v>
+        <v>0.5031638878774203</v>
       </c>
       <c r="G17">
-        <v>0.6897842207014264</v>
+        <v>0.2818261854888178</v>
       </c>
       <c r="H17">
-        <v>0.3569774292466263</v>
+        <v>0.1243363142894935</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.00435286622383213</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2470696701088784</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2264890698524309</v>
       </c>
       <c r="L17">
-        <v>0.9756567363542956</v>
+        <v>0.07290024387518201</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.985848224791482</v>
       </c>
       <c r="N17">
-        <v>1.86171133401001</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>2.163935926532673</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.3643201440632424</v>
+      </c>
+      <c r="P17">
+        <v>0.9179430743358381</v>
+      </c>
+      <c r="Q17">
+        <v>1.064113202004393</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.043750116942306</v>
+        <v>0.3418441243795485</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03829042387538806</v>
+        <v>0.1442005747774857</v>
       </c>
       <c r="E18">
-        <v>0.3751281212202002</v>
+        <v>0.07311115695352477</v>
       </c>
       <c r="F18">
-        <v>0.7794855404209358</v>
+        <v>0.5460142125201415</v>
       </c>
       <c r="G18">
-        <v>0.6719333495213107</v>
+        <v>0.3041927844242593</v>
       </c>
       <c r="H18">
-        <v>0.3497030575479272</v>
+        <v>0.0714832524318112</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.004221718983881573</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2596137684308744</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2294412271609938</v>
       </c>
       <c r="L18">
-        <v>0.9514376691032851</v>
+        <v>0.07547601933771286</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.971917083659577</v>
       </c>
       <c r="N18">
-        <v>1.840190636852299</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>2.110784907396209</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.407973963483812</v>
+      </c>
+      <c r="P18">
+        <v>0.8980939045456324</v>
+      </c>
+      <c r="Q18">
+        <v>1.137747507431911</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.026846260417642</v>
+        <v>0.329546343857146</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03796209067796497</v>
+        <v>0.1743766652223258</v>
       </c>
       <c r="E19">
-        <v>0.3744721126328585</v>
+        <v>0.09877284378330842</v>
       </c>
       <c r="F19">
-        <v>0.772794066751274</v>
+        <v>0.6072287823114877</v>
       </c>
       <c r="G19">
-        <v>0.665909083775972</v>
+        <v>0.3362738266815981</v>
       </c>
       <c r="H19">
-        <v>0.3472512869174693</v>
+        <v>0.02643324767512212</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.004328331849787759</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2761939395591</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2315970077230258</v>
       </c>
       <c r="L19">
-        <v>0.9432416118914375</v>
+        <v>0.09350033525282697</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>2.004130460277395</v>
       </c>
       <c r="N19">
-        <v>1.832929668281622</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>2.092854008619156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.4780611118475022</v>
+      </c>
+      <c r="P19">
+        <v>0.875219950578014</v>
+      </c>
+      <c r="Q19">
+        <v>1.240478308446427</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.102991367704192</v>
+        <v>0.330059986329772</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.0394400448714407</v>
+        <v>0.2325063248299273</v>
       </c>
       <c r="E20">
-        <v>0.3774353068775156</v>
+        <v>0.1559942170113224</v>
       </c>
       <c r="F20">
-        <v>0.8029920658609342</v>
+        <v>0.7202344064873358</v>
       </c>
       <c r="G20">
-        <v>0.6930975498090106</v>
+        <v>0.3964687424401916</v>
       </c>
       <c r="H20">
-        <v>0.3583291483441258</v>
+        <v>0.001203186862318351</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.004024321230348349</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.3045300503749644</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.2315068233439916</v>
       </c>
       <c r="L20">
-        <v>0.9801411533481996</v>
+        <v>0.1522082003757248</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>2.152268678649961</v>
       </c>
       <c r="N20">
-        <v>1.865706564679186</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>2.173804414045605</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.6181676528322768</v>
+      </c>
+      <c r="P20">
+        <v>0.838626116083077</v>
+      </c>
+      <c r="Q20">
+        <v>1.427563064302234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.360253832853743</v>
+        <v>0.3711889106371871</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04441416400625542</v>
+        <v>0.2595951282033582</v>
       </c>
       <c r="E21">
-        <v>0.3875775345407604</v>
+        <v>0.1740758682594858</v>
       </c>
       <c r="F21">
-        <v>0.9060507949834005</v>
+        <v>0.7756751346668977</v>
       </c>
       <c r="G21">
-        <v>0.7859192839803626</v>
+        <v>0.4293446831071464</v>
       </c>
       <c r="H21">
-        <v>0.3963740909219524</v>
+        <v>0.002411441915218471</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.003347762206075799</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.3152586108801643</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.2217035684430293</v>
       </c>
       <c r="L21">
-        <v>1.104442886849853</v>
+        <v>0.1691591763762545</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>2.418189707462886</v>
       </c>
       <c r="N21">
-        <v>1.977665186482568</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>2.450622778641105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.704716748342733</v>
+      </c>
+      <c r="P21">
+        <v>0.8186640173966282</v>
+      </c>
+      <c r="Q21">
+        <v>1.520043821303858</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.529575175080652</v>
+        <v>0.4020757668591273</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04767265297252976</v>
+        <v>0.2746095593719531</v>
       </c>
       <c r="E22">
-        <v>0.394335512076097</v>
+        <v>0.1829207044999457</v>
       </c>
       <c r="F22">
-        <v>0.9747215758003023</v>
+        <v>0.8085149959069184</v>
       </c>
       <c r="G22">
-        <v>0.8478031039066991</v>
+        <v>0.4495342091296237</v>
       </c>
       <c r="H22">
-        <v>0.421909005401389</v>
+        <v>0.003455057633278358</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.002672224688960334</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.3217005475256514</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.2156930470101317</v>
       </c>
       <c r="L22">
-        <v>1.185970982949925</v>
+        <v>0.1768131752962461</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2.584151599784605</v>
       </c>
       <c r="N22">
-        <v>2.05226864091054</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>2.635519477805929</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.7544529988590867</v>
+      </c>
+      <c r="P22">
+        <v>0.8065512286858052</v>
+      </c>
+      <c r="Q22">
+        <v>1.576534008286757</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.439088530568426</v>
+        <v>0.3892345585375097</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04593274909233713</v>
+        <v>0.2665108872986508</v>
       </c>
       <c r="E23">
-        <v>0.3907174203321517</v>
+        <v>0.1782577402400243</v>
       </c>
       <c r="F23">
-        <v>0.9379419428659617</v>
+        <v>0.7918209977351296</v>
       </c>
       <c r="G23">
-        <v>0.8146548276887415</v>
+        <v>0.4394416435318931</v>
       </c>
       <c r="H23">
-        <v>0.4082155027846284</v>
+        <v>0.002877734078753025</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.002694958414179993</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.3186153088726371</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.219231917847321</v>
       </c>
       <c r="L23">
-        <v>1.142428185668393</v>
+        <v>0.1728607169964462</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2.490908566321195</v>
       </c>
       <c r="N23">
-        <v>2.01231595913822</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.536447462841494</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.7269327308792484</v>
+      </c>
+      <c r="P23">
+        <v>0.8118526016769323</v>
+      </c>
+      <c r="Q23">
+        <v>1.54857109843195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.098804782599927</v>
+        <v>0.3340624709832127</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03935885443986109</v>
+        <v>0.2360925351322152</v>
       </c>
       <c r="E24">
-        <v>0.3772718579014338</v>
+        <v>0.1605292773983464</v>
       </c>
       <c r="F24">
-        <v>0.8013280333931192</v>
+        <v>0.7285210906208661</v>
       </c>
       <c r="G24">
-        <v>0.6915992505478386</v>
+        <v>0.4011320734434207</v>
       </c>
       <c r="H24">
-        <v>0.3577178384119151</v>
+        <v>0.001138564958038879</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.00349138406584526</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.3069633295527439</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.2324941088156773</v>
       </c>
       <c r="L24">
-        <v>0.9781137040349677</v>
+        <v>0.1576570387588561</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>2.146184973566903</v>
       </c>
       <c r="N24">
-        <v>1.863899881938636</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>2.169341732573969</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.6245643695250749</v>
+      </c>
+      <c r="P24">
+        <v>0.8351536470010359</v>
+      </c>
+      <c r="Q24">
+        <v>1.44254172958523</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.736063883364096</v>
+        <v>0.2734079602481501</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03229193327343438</v>
+        <v>0.2035045166290388</v>
       </c>
       <c r="E25">
-        <v>0.3633847133708343</v>
+        <v>0.1414377710131021</v>
       </c>
       <c r="F25">
-        <v>0.6588259612307041</v>
+        <v>0.6629410521740908</v>
       </c>
       <c r="G25">
-        <v>0.5633273390805158</v>
+        <v>0.3619487925183336</v>
       </c>
       <c r="H25">
-        <v>0.3057748483582827</v>
+        <v>0.000127565939178842</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.004754401480388637</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2956962852190514</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.2476803823001896</v>
       </c>
       <c r="L25">
-        <v>0.8018149667186947</v>
+        <v>0.141186645094642</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.775625513611743</v>
       </c>
       <c r="N25">
-        <v>1.709538816370042</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.788073377040917</v>
+        <v>0.5146115306681338</v>
+      </c>
+      <c r="P25">
+        <v>0.8630765070412352</v>
+      </c>
+      <c r="Q25">
+        <v>1.335406159901993</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_53/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2364951824248607</v>
+        <v>0.2385494419898038</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1794668331480551</v>
+        <v>0.1789054769178762</v>
       </c>
       <c r="E2">
-        <v>0.1275212047405034</v>
+        <v>0.126880297895358</v>
       </c>
       <c r="F2">
-        <v>0.6189005202101185</v>
+        <v>0.6195178208641821</v>
       </c>
       <c r="G2">
-        <v>0.3365027091678527</v>
+        <v>0.3186773198750856</v>
       </c>
       <c r="H2">
-        <v>3.710273594137448E-05</v>
+        <v>3.413746513092342E-05</v>
       </c>
       <c r="I2">
-        <v>0.005213285326252759</v>
+        <v>0.002985839422983361</v>
       </c>
       <c r="J2">
-        <v>0.2893668893905215</v>
+        <v>0.3274617270946649</v>
       </c>
       <c r="K2">
-        <v>0.2606120247335753</v>
+        <v>0.233889920172603</v>
       </c>
       <c r="L2">
-        <v>0.1292870680748521</v>
+        <v>0.113943408696267</v>
       </c>
       <c r="M2">
-        <v>1.492395655035637</v>
+        <v>0.06661662421631298</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1284226338354415</v>
       </c>
       <c r="O2">
-        <v>0.4316174366138057</v>
+        <v>1.479502360770539</v>
       </c>
       <c r="P2">
-        <v>0.883633924758449</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.267832821856061</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.4320624384667582</v>
+      </c>
+      <c r="R2">
+        <v>0.8565147256082639</v>
+      </c>
+      <c r="S2">
+        <v>1.270823935222936</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2058703940122655</v>
+        <v>0.2120307688202558</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1633581572339153</v>
+        <v>0.162813081492672</v>
       </c>
       <c r="E3">
-        <v>0.1179882075633572</v>
+        <v>0.1175037089260442</v>
       </c>
       <c r="F3">
-        <v>0.5889142819329862</v>
+        <v>0.5902039249333271</v>
       </c>
       <c r="G3">
-        <v>0.3190923634242608</v>
+        <v>0.3022827824807379</v>
       </c>
       <c r="H3">
-        <v>0.0003407161109303392</v>
+        <v>0.0003234548258865821</v>
       </c>
       <c r="I3">
-        <v>0.006120805840734267</v>
+        <v>0.003519682875002594</v>
       </c>
       <c r="J3">
-        <v>0.28511133520486</v>
+        <v>0.3213849000499991</v>
       </c>
       <c r="K3">
-        <v>0.2692449856193981</v>
+        <v>0.2414782874677521</v>
       </c>
       <c r="L3">
-        <v>0.1209608365970425</v>
+        <v>0.1180591879161099</v>
       </c>
       <c r="M3">
-        <v>1.307041524945447</v>
+        <v>0.07000708720041193</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1203384312382276</v>
       </c>
       <c r="O3">
-        <v>0.3768113023654678</v>
+        <v>1.289322321138883</v>
       </c>
       <c r="P3">
-        <v>0.9002682387529397</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.221743749630249</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3762352143926861</v>
+      </c>
+      <c r="R3">
+        <v>0.8701814706962629</v>
+      </c>
+      <c r="S3">
+        <v>1.226250764860936</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1866458140231373</v>
+        <v>0.1951875418048132</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1534997979513832</v>
+        <v>0.1529699797959552</v>
       </c>
       <c r="E4">
-        <v>0.1121188193180025</v>
+        <v>0.1117297422363137</v>
       </c>
       <c r="F4">
-        <v>0.5709793314120333</v>
+        <v>0.5726311505335886</v>
       </c>
       <c r="G4">
-        <v>0.3087658337096428</v>
+        <v>0.2926243115488276</v>
       </c>
       <c r="H4">
-        <v>0.0006938165219347869</v>
+        <v>0.0006617142965145151</v>
       </c>
       <c r="I4">
-        <v>0.006771855983820796</v>
+        <v>0.003924529392548504</v>
       </c>
       <c r="J4">
-        <v>0.282751794039001</v>
+        <v>0.3177699894037147</v>
       </c>
       <c r="K4">
-        <v>0.2747331146777574</v>
+        <v>0.2462974797749489</v>
       </c>
       <c r="L4">
-        <v>0.1158002276872772</v>
+        <v>0.1209167727647023</v>
       </c>
       <c r="M4">
-        <v>1.193457360883798</v>
+        <v>0.07237963209010267</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.115323365512797</v>
       </c>
       <c r="O4">
-        <v>0.3432336503344118</v>
+        <v>1.172953940782833</v>
       </c>
       <c r="P4">
-        <v>0.9111456226812642</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.19473848323311</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3420643285002498</v>
+      </c>
+      <c r="R4">
+        <v>0.8792846441810482</v>
+      </c>
+      <c r="S4">
+        <v>1.200026899912018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1778151710997662</v>
+        <v>0.187329661790244</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1495094654778768</v>
+        <v>0.1489859681326635</v>
       </c>
       <c r="E5">
-        <v>0.1097070673112555</v>
+        <v>0.1093577424918735</v>
       </c>
       <c r="F5">
-        <v>0.5635522772188466</v>
+        <v>0.5653532100952745</v>
       </c>
       <c r="G5">
-        <v>0.3044536760203655</v>
+        <v>0.2886078174073958</v>
       </c>
       <c r="H5">
-        <v>0.0008778875629945615</v>
+        <v>0.0008382690128518888</v>
       </c>
       <c r="I5">
-        <v>0.007142697157481503</v>
+        <v>0.004200226113320937</v>
       </c>
       <c r="J5">
-        <v>0.2817507021425456</v>
+        <v>0.3162269533078259</v>
       </c>
       <c r="K5">
-        <v>0.2768949470461712</v>
+        <v>0.2481779803242872</v>
       </c>
       <c r="L5">
-        <v>0.1136505570153261</v>
+        <v>0.1220496846784576</v>
       </c>
       <c r="M5">
-        <v>1.148347188252984</v>
+        <v>0.0734397531918245</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1132343884443401</v>
       </c>
       <c r="O5">
-        <v>0.32980331905285</v>
+        <v>1.126680238561192</v>
       </c>
       <c r="P5">
-        <v>0.9159400543253398</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.183428415528851</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3283853799306513</v>
+      </c>
+      <c r="R5">
+        <v>0.8833476311889328</v>
+      </c>
+      <c r="S5">
+        <v>1.189034763229259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1752519577609348</v>
+        <v>0.1849728079938728</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1488714392465909</v>
+        <v>0.1483475458507968</v>
       </c>
       <c r="E6">
-        <v>0.1092875872754888</v>
+        <v>0.1089460769952524</v>
       </c>
       <c r="F6">
-        <v>0.5620408754822535</v>
+        <v>0.5638830305238827</v>
       </c>
       <c r="G6">
-        <v>0.3035094919040517</v>
+        <v>0.2877295516281393</v>
       </c>
       <c r="H6">
-        <v>0.0009110698666422445</v>
+        <v>0.0008700941040085119</v>
       </c>
       <c r="I6">
-        <v>0.007313802843320616</v>
+        <v>0.004368199810960149</v>
       </c>
       <c r="J6">
-        <v>0.2814642971415822</v>
+        <v>0.3158523122549681</v>
       </c>
       <c r="K6">
-        <v>0.2771109225951705</v>
+        <v>0.2483447418386699</v>
       </c>
       <c r="L6">
-        <v>0.1132513330120695</v>
+        <v>0.1221047721118182</v>
       </c>
       <c r="M6">
-        <v>1.14224394071536</v>
+        <v>0.07364437872766993</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1128478011215535</v>
       </c>
       <c r="O6">
-        <v>0.3278646054551189</v>
+        <v>1.120294945487558</v>
       </c>
       <c r="P6">
-        <v>0.916991996565617</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.180815016628671</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3263868816883715</v>
+      </c>
+      <c r="R6">
+        <v>0.8842535961768689</v>
+      </c>
+      <c r="S6">
+        <v>1.186516502916902</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1835342500846053</v>
+        <v>0.1924055746315076</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1535119726894578</v>
+        <v>0.1531624188093872</v>
       </c>
       <c r="E7">
-        <v>0.1120352876501975</v>
+        <v>0.1116964881805238</v>
       </c>
       <c r="F7">
-        <v>0.5701018144699646</v>
+        <v>0.5709974279409664</v>
       </c>
       <c r="G7">
-        <v>0.3080711652975054</v>
+        <v>0.2946277298927811</v>
       </c>
       <c r="H7">
-        <v>0.0006967275270690632</v>
+        <v>0.0006663143813232519</v>
       </c>
       <c r="I7">
-        <v>0.007056574539946681</v>
+        <v>0.004242624580015786</v>
       </c>
       <c r="J7">
-        <v>0.2824007985001202</v>
+        <v>0.3134772636280019</v>
       </c>
       <c r="K7">
-        <v>0.2743681072926663</v>
+        <v>0.2458823761569691</v>
       </c>
       <c r="L7">
-        <v>0.1156581294052295</v>
+        <v>0.1205404803431591</v>
       </c>
       <c r="M7">
-        <v>1.196639691791546</v>
+        <v>0.07244588354216974</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1151768384540972</v>
       </c>
       <c r="O7">
-        <v>0.3438471968495449</v>
+        <v>1.174372211425947</v>
       </c>
       <c r="P7">
-        <v>0.9118990447093154</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.192530067832251</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3423875731190762</v>
+      </c>
+      <c r="R7">
+        <v>0.8801761518411659</v>
+      </c>
+      <c r="S7">
+        <v>1.195649689109047</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2220256128986762</v>
+        <v>0.2263438470238412</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1739929851949995</v>
+        <v>0.1740505022108891</v>
       </c>
       <c r="E8">
-        <v>0.1241700510927934</v>
+        <v>0.1237457518656946</v>
       </c>
       <c r="F8">
-        <v>0.6074364870336311</v>
+        <v>0.6056810267127588</v>
       </c>
       <c r="G8">
-        <v>0.3295837708709257</v>
+        <v>0.3210569089129649</v>
       </c>
       <c r="H8">
-        <v>0.0001062812365835164</v>
+        <v>0.0001018722063381716</v>
       </c>
       <c r="I8">
-        <v>0.005846155770417916</v>
+        <v>0.003540035125789487</v>
       </c>
       <c r="J8">
-        <v>0.2874037971853554</v>
+        <v>0.3120185421157302</v>
       </c>
       <c r="K8">
-        <v>0.2630551632685272</v>
+        <v>0.2358697173079758</v>
       </c>
       <c r="L8">
-        <v>0.1262766840256049</v>
+        <v>0.1148397665020235</v>
       </c>
       <c r="M8">
-        <v>1.433490082324738</v>
+        <v>0.06771478860079871</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1254684191263564</v>
       </c>
       <c r="O8">
-        <v>0.4137609046474395</v>
+        <v>1.413531231990106</v>
       </c>
       <c r="P8">
-        <v>0.8902212655695791</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.248963508203872</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4129884538488255</v>
+      </c>
+      <c r="R8">
+        <v>0.8627778189636075</v>
+      </c>
+      <c r="S8">
+        <v>1.24504817427497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2994540870488578</v>
+        <v>0.292787120504201</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2143364846567266</v>
+        <v>0.2145685219884257</v>
       </c>
       <c r="E9">
-        <v>0.1479578659641376</v>
+        <v>0.1471846199315507</v>
       </c>
       <c r="F9">
-        <v>0.6860723312742252</v>
+        <v>0.6815432606305265</v>
       </c>
       <c r="G9">
-        <v>0.3760103649668025</v>
+        <v>0.3677087030896331</v>
       </c>
       <c r="H9">
-        <v>0.0003612087803563924</v>
+        <v>0.0003484368354638168</v>
       </c>
       <c r="I9">
-        <v>0.003811430786720749</v>
+        <v>0.002302044237973533</v>
       </c>
       <c r="J9">
-        <v>0.2999178900665385</v>
+        <v>0.3246555799242046</v>
       </c>
       <c r="K9">
-        <v>0.2430492628035763</v>
+        <v>0.2183177946563575</v>
       </c>
       <c r="L9">
-        <v>0.1469484423189158</v>
+        <v>0.1068858721773167</v>
       </c>
       <c r="M9">
-        <v>1.893375440244853</v>
+        <v>0.06074223607286111</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1455046633219155</v>
       </c>
       <c r="O9">
-        <v>0.5501519295630928</v>
+        <v>1.885192100703364</v>
       </c>
       <c r="P9">
-        <v>0.8517954443295253</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.374219347876789</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.5519296487362695</v>
+      </c>
+      <c r="R9">
+        <v>0.8324225125936593</v>
+      </c>
+      <c r="S9">
+        <v>1.363389215722151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.353586807594823</v>
+        <v>0.3398989106054415</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2390116586070263</v>
+        <v>0.2404821288849348</v>
       </c>
       <c r="E10">
-        <v>0.159406014792463</v>
+        <v>0.1586725127279784</v>
       </c>
       <c r="F10">
-        <v>0.7364396433837541</v>
+        <v>0.7251160809684976</v>
       </c>
       <c r="G10">
-        <v>0.4068927096985675</v>
+        <v>0.4152723517091204</v>
       </c>
       <c r="H10">
-        <v>0.001624906840581808</v>
+        <v>0.001558837939460211</v>
       </c>
       <c r="I10">
-        <v>0.002977335305849316</v>
+        <v>0.001980253478299332</v>
       </c>
       <c r="J10">
-        <v>0.3078308894939852</v>
+        <v>0.310601944428349</v>
       </c>
       <c r="K10">
-        <v>0.2288132061054959</v>
+        <v>0.2057457140700829</v>
       </c>
       <c r="L10">
-        <v>0.1549370715462288</v>
+        <v>0.102535593619327</v>
       </c>
       <c r="M10">
-        <v>2.228594498747469</v>
+        <v>0.05673016613375381</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1530069574638802</v>
       </c>
       <c r="O10">
-        <v>0.6396900503853828</v>
+        <v>2.219895886412644</v>
       </c>
       <c r="P10">
-        <v>0.8303520216934288</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.45668103061422</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.6418665352424355</v>
+      </c>
+      <c r="R10">
+        <v>0.8187566248297884</v>
+      </c>
+      <c r="S10">
+        <v>1.427142708968972</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3822663467137488</v>
+        <v>0.3720272344045839</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2066639747619377</v>
+        <v>0.2100869404282975</v>
       </c>
       <c r="E11">
-        <v>0.1183572235962558</v>
+        <v>0.1180264267504114</v>
       </c>
       <c r="F11">
-        <v>0.6746964125210866</v>
+        <v>0.6548483109477417</v>
       </c>
       <c r="G11">
-        <v>0.3764715789623807</v>
+        <v>0.4197537842355388</v>
       </c>
       <c r="H11">
-        <v>0.0200960001613204</v>
+        <v>0.02000069830339513</v>
       </c>
       <c r="I11">
-        <v>0.003242621685171088</v>
+        <v>0.002493773039683234</v>
       </c>
       <c r="J11">
-        <v>0.2893683059739232</v>
+        <v>0.2545739139307486</v>
       </c>
       <c r="K11">
-        <v>0.2196059004320609</v>
+        <v>0.198198776765373</v>
       </c>
       <c r="L11">
-        <v>0.1093199062928427</v>
+        <v>0.1006456884032425</v>
       </c>
       <c r="M11">
-        <v>2.328846871048171</v>
+        <v>0.05387249604022282</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1074702100927034</v>
       </c>
       <c r="O11">
-        <v>0.5823218698816817</v>
+        <v>2.297885940330957</v>
       </c>
       <c r="P11">
-        <v>0.8496828598864212</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.3536837167496</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.5810203360801651</v>
+      </c>
+      <c r="R11">
+        <v>0.8450304873600984</v>
+      </c>
+      <c r="S11">
+        <v>1.299193373279223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4006175394142986</v>
+        <v>0.3940311742083367</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1763773691777146</v>
+        <v>0.1802996717096903</v>
       </c>
       <c r="E12">
-        <v>0.08911773185973892</v>
+        <v>0.08878282274709015</v>
       </c>
       <c r="F12">
-        <v>0.6147770126696486</v>
+        <v>0.5925321960131598</v>
       </c>
       <c r="G12">
-        <v>0.345759531980022</v>
+        <v>0.403502499768706</v>
       </c>
       <c r="H12">
-        <v>0.05857001223562008</v>
+        <v>0.0584711334224437</v>
       </c>
       <c r="I12">
-        <v>0.00316152050986318</v>
+        <v>0.002451952517413147</v>
       </c>
       <c r="J12">
-        <v>0.2727121560195371</v>
+        <v>0.2268220897362525</v>
       </c>
       <c r="K12">
-        <v>0.2157330500284043</v>
+        <v>0.195320137687006</v>
       </c>
       <c r="L12">
-        <v>0.08472488398438038</v>
+        <v>0.1002558104653848</v>
       </c>
       <c r="M12">
-        <v>2.335203771383618</v>
+        <v>0.05250199926369681</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.08300012906845211</v>
       </c>
       <c r="O12">
-        <v>0.5166733635329592</v>
+        <v>2.291508104501162</v>
       </c>
       <c r="P12">
-        <v>0.8719377130466626</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.253745512403867</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.5135451985694317</v>
+      </c>
+      <c r="R12">
+        <v>0.8705918959622068</v>
+      </c>
+      <c r="S12">
+        <v>1.191491591198172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4072060649752416</v>
+        <v>0.4045751086419784</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1461641018208724</v>
+        <v>0.149312340608347</v>
       </c>
       <c r="E13">
-        <v>0.06720686669714659</v>
+        <v>0.06663396010197786</v>
       </c>
       <c r="F13">
-        <v>0.5516699911843972</v>
+        <v>0.5328025445401678</v>
       </c>
       <c r="G13">
-        <v>0.3120436136092408</v>
+        <v>0.3630551587704076</v>
       </c>
       <c r="H13">
-        <v>0.114019416777424</v>
+        <v>0.1139383350902392</v>
       </c>
       <c r="I13">
-        <v>0.003201985896942539</v>
+        <v>0.002442370804071281</v>
       </c>
       <c r="J13">
-        <v>0.2559246098597683</v>
+        <v>0.2190283554448769</v>
       </c>
       <c r="K13">
-        <v>0.2150921817322993</v>
+        <v>0.1951989289482081</v>
       </c>
       <c r="L13">
-        <v>0.07450406989925296</v>
+        <v>0.1004228117503665</v>
       </c>
       <c r="M13">
-        <v>2.275610932658651</v>
+        <v>0.05210552921378031</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.07295294556454812</v>
       </c>
       <c r="O13">
-        <v>0.4425662544608855</v>
+        <v>2.229515353795222</v>
       </c>
       <c r="P13">
-        <v>0.8982725650794379</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.147084458872399</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.4390981893249801</v>
+      </c>
+      <c r="R13">
+        <v>0.8958427899716384</v>
+      </c>
+      <c r="S13">
+        <v>1.093637356705301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4055037199797198</v>
+        <v>0.4058648587861313</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1255617360522265</v>
+        <v>0.1277658306375216</v>
       </c>
       <c r="E14">
-        <v>0.05629203176982767</v>
+        <v>0.05553682273263494</v>
       </c>
       <c r="F14">
-        <v>0.5064968867276178</v>
+        <v>0.4920815695779908</v>
       </c>
       <c r="G14">
-        <v>0.2872263068994698</v>
+        <v>0.3254559498879104</v>
       </c>
       <c r="H14">
-        <v>0.1631328567515453</v>
+        <v>0.1630704287838114</v>
       </c>
       <c r="I14">
-        <v>0.003374035024794608</v>
+        <v>0.002551988438452391</v>
       </c>
       <c r="J14">
-        <v>0.24415148955012</v>
+        <v>0.2208098935311753</v>
       </c>
       <c r="K14">
-        <v>0.2161158420492031</v>
+        <v>0.1962917645227407</v>
       </c>
       <c r="L14">
-        <v>0.07583044063257738</v>
+        <v>0.1007003533192838</v>
       </c>
       <c r="M14">
-        <v>2.205408615018939</v>
+        <v>0.05231104459495778</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.07440640209220994</v>
       </c>
       <c r="O14">
-        <v>0.3879802011476059</v>
+        <v>2.161965378925629</v>
       </c>
       <c r="P14">
-        <v>0.9190148550929393</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.069761298735372</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.3848150637357222</v>
+      </c>
+      <c r="R14">
+        <v>0.9135189605403369</v>
+      </c>
+      <c r="S14">
+        <v>1.028689311992878</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4011573428162905</v>
+        <v>0.402392581334027</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1203214924983911</v>
+        <v>0.1221342924421265</v>
       </c>
       <c r="E15">
-        <v>0.05420005430644004</v>
+        <v>0.05340506149349888</v>
       </c>
       <c r="F15">
-        <v>0.4944498340348531</v>
+        <v>0.482007324869393</v>
       </c>
       <c r="G15">
-        <v>0.2803166369011763</v>
+        <v>0.3121690653218536</v>
       </c>
       <c r="H15">
-        <v>0.1755452356615308</v>
+        <v>0.1754909790208643</v>
       </c>
       <c r="I15">
-        <v>0.003568673611851203</v>
+        <v>0.002731295488053398</v>
       </c>
       <c r="J15">
-        <v>0.241154895933839</v>
+        <v>0.2243442398132629</v>
       </c>
       <c r="K15">
-        <v>0.2169808608637567</v>
+        <v>0.1970640223453675</v>
       </c>
       <c r="L15">
-        <v>0.0771878540234372</v>
+        <v>0.1008319276192138</v>
       </c>
       <c r="M15">
-        <v>2.176029161271032</v>
+        <v>0.05256924594849843</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.07581026688650283</v>
       </c>
       <c r="O15">
-        <v>0.3728764739757437</v>
+        <v>2.134970682738157</v>
       </c>
       <c r="P15">
-        <v>0.9250443526504526</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.048805965933923</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.369975850817525</v>
+      </c>
+      <c r="R15">
+        <v>0.9178214661273927</v>
+      </c>
+      <c r="S15">
+        <v>1.013396241113682</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3744329096734447</v>
+        <v>0.3764384934438141</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1166352129584212</v>
+        <v>0.1170265253143228</v>
       </c>
       <c r="E16">
-        <v>0.05424088403834837</v>
+        <v>0.05343998400662819</v>
       </c>
       <c r="F16">
-        <v>0.4859591150359748</v>
+        <v>0.4810706781557883</v>
       </c>
       <c r="G16">
-        <v>0.2737601053459997</v>
+        <v>0.2787010287897118</v>
       </c>
       <c r="H16">
-        <v>0.1623437168021695</v>
+        <v>0.1623213793569533</v>
       </c>
       <c r="I16">
-        <v>0.004046890114735469</v>
+        <v>0.003034163156819147</v>
       </c>
       <c r="J16">
-        <v>0.2409662222123004</v>
+        <v>0.2535138481671666</v>
       </c>
       <c r="K16">
-        <v>0.2226540543793405</v>
+        <v>0.201740547422399</v>
       </c>
       <c r="L16">
-        <v>0.0759414605417934</v>
+        <v>0.1014444898071205</v>
       </c>
       <c r="M16">
-        <v>2.047152036031008</v>
+        <v>0.05457209933305518</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.0747529635144133</v>
       </c>
       <c r="O16">
-        <v>0.3519585381527008</v>
+        <v>2.020843893238123</v>
       </c>
       <c r="P16">
-        <v>0.9271081765064366</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.03433610869439</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.3507060020699555</v>
+      </c>
+      <c r="R16">
+        <v>0.9121685396061352</v>
+      </c>
+      <c r="S16">
+        <v>1.021208184068698</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3547509940051015</v>
+        <v>0.3560447055056244</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1244194217362917</v>
+        <v>0.124268070874038</v>
       </c>
       <c r="E17">
-        <v>0.05929331047279351</v>
+        <v>0.05850540246487057</v>
       </c>
       <c r="F17">
-        <v>0.5031638878774203</v>
+        <v>0.5011636185634174</v>
       </c>
       <c r="G17">
-        <v>0.2818261854888178</v>
+        <v>0.2757884020514325</v>
       </c>
       <c r="H17">
-        <v>0.1243363142894935</v>
+        <v>0.1243247561831424</v>
       </c>
       <c r="I17">
-        <v>0.00435286622383213</v>
+        <v>0.003239127900332761</v>
       </c>
       <c r="J17">
-        <v>0.2470696701088784</v>
+        <v>0.2731859156236069</v>
       </c>
       <c r="K17">
-        <v>0.2264890698524309</v>
+        <v>0.2048875657838845</v>
       </c>
       <c r="L17">
-        <v>0.07290024387518201</v>
+        <v>0.1020185411325221</v>
       </c>
       <c r="M17">
-        <v>1.985848224791482</v>
+        <v>0.05595297290951895</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.07178955583898361</v>
       </c>
       <c r="O17">
-        <v>0.3643201440632424</v>
+        <v>1.96698251862432</v>
       </c>
       <c r="P17">
-        <v>0.9179430743358381</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.064113202004393</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.3639598297474578</v>
+      </c>
+      <c r="R17">
+        <v>0.8998827289930986</v>
+      </c>
+      <c r="S17">
+        <v>1.059625999964851</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3418441243795485</v>
+        <v>0.3405723177062043</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1442005747774857</v>
+        <v>0.1438622257236943</v>
       </c>
       <c r="E18">
-        <v>0.07311115695352477</v>
+        <v>0.07230079399924882</v>
       </c>
       <c r="F18">
-        <v>0.5460142125201415</v>
+        <v>0.5447214657009596</v>
       </c>
       <c r="G18">
-        <v>0.3041927844242593</v>
+        <v>0.2931506853486354</v>
       </c>
       <c r="H18">
-        <v>0.0714832524318112</v>
+        <v>0.07147390424146494</v>
       </c>
       <c r="I18">
-        <v>0.004221718983881573</v>
+        <v>0.00301986926271347</v>
       </c>
       <c r="J18">
-        <v>0.2596137684308744</v>
+        <v>0.2916794437640533</v>
       </c>
       <c r="K18">
-        <v>0.2294412271609938</v>
+        <v>0.2072783148198039</v>
       </c>
       <c r="L18">
-        <v>0.07547601933771286</v>
+        <v>0.1026629425775971</v>
       </c>
       <c r="M18">
-        <v>1.971917083659577</v>
+        <v>0.05694321319373094</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.07435212806417901</v>
       </c>
       <c r="O18">
-        <v>0.407973963483812</v>
+        <v>1.958833467454411</v>
       </c>
       <c r="P18">
-        <v>0.8980939045456324</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.137747507431911</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.408489728137404</v>
+      </c>
+      <c r="R18">
+        <v>0.8794163082609572</v>
+      </c>
+      <c r="S18">
+        <v>1.135556784308719</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.329546343857146</v>
+        <v>0.3247758977770729</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1743766652223258</v>
+        <v>0.1740507630006789</v>
       </c>
       <c r="E19">
-        <v>0.09877284378330842</v>
+        <v>0.09790308633735378</v>
       </c>
       <c r="F19">
-        <v>0.6072287823114877</v>
+        <v>0.6053994411532173</v>
       </c>
       <c r="G19">
-        <v>0.3362738266815981</v>
+        <v>0.3232560130363566</v>
       </c>
       <c r="H19">
-        <v>0.02643324767512212</v>
+        <v>0.02642032149680063</v>
       </c>
       <c r="I19">
-        <v>0.004328331849787759</v>
+        <v>0.003158236313034024</v>
       </c>
       <c r="J19">
-        <v>0.2761939395591</v>
+        <v>0.309918228027307</v>
       </c>
       <c r="K19">
-        <v>0.2315970077230258</v>
+        <v>0.2089446429515119</v>
       </c>
       <c r="L19">
-        <v>0.09350033525282697</v>
+        <v>0.1032695065440907</v>
       </c>
       <c r="M19">
-        <v>2.004130460277395</v>
+        <v>0.05756915843841104</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.09224910204646264</v>
       </c>
       <c r="O19">
-        <v>0.4780611118475022</v>
+        <v>1.99607746633535</v>
       </c>
       <c r="P19">
-        <v>0.875219950578014</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.240478308446427</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.4795407195970611</v>
+      </c>
+      <c r="R19">
+        <v>0.8571422202336905</v>
+      </c>
+      <c r="S19">
+        <v>1.237050986847862</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.330059986329772</v>
+        <v>0.318454644999818</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2325063248299273</v>
+        <v>0.232951575684794</v>
       </c>
       <c r="E20">
-        <v>0.1559942170113224</v>
+        <v>0.1550844465383072</v>
       </c>
       <c r="F20">
-        <v>0.7202344064873358</v>
+        <v>0.7137859174995285</v>
       </c>
       <c r="G20">
-        <v>0.3964687424401916</v>
+        <v>0.3906128810540679</v>
       </c>
       <c r="H20">
-        <v>0.001203186862318351</v>
+        <v>0.00116155930685391</v>
       </c>
       <c r="I20">
-        <v>0.004024321230348349</v>
+        <v>0.003035646151414717</v>
       </c>
       <c r="J20">
-        <v>0.3045300503749644</v>
+        <v>0.3263274739271367</v>
       </c>
       <c r="K20">
-        <v>0.2315068233439916</v>
+        <v>0.2083315716188872</v>
       </c>
       <c r="L20">
-        <v>0.1522082003757248</v>
+        <v>0.1032975253916921</v>
       </c>
       <c r="M20">
-        <v>2.152268678649961</v>
+        <v>0.05744977524517658</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1504634648423391</v>
       </c>
       <c r="O20">
-        <v>0.6181676528322768</v>
+        <v>2.148544850312021</v>
       </c>
       <c r="P20">
-        <v>0.838626116083077</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.427563064302234</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.6209510062642565</v>
+      </c>
+      <c r="R20">
+        <v>0.8239175047055696</v>
+      </c>
+      <c r="S20">
+        <v>1.411701595928747</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3711889106371871</v>
+        <v>0.3564103577427886</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2595951282033582</v>
+        <v>0.2647929984265431</v>
       </c>
       <c r="E21">
-        <v>0.1740758682594858</v>
+        <v>0.1741736154748459</v>
       </c>
       <c r="F21">
-        <v>0.7756751346668977</v>
+        <v>0.7480830383392103</v>
       </c>
       <c r="G21">
-        <v>0.4293446831071464</v>
+        <v>0.4917967805582037</v>
       </c>
       <c r="H21">
-        <v>0.002411441915218471</v>
+        <v>0.002261834615967073</v>
       </c>
       <c r="I21">
-        <v>0.003347762206075799</v>
+        <v>0.002714269855281337</v>
       </c>
       <c r="J21">
-        <v>0.3152586108801643</v>
+        <v>0.2578685627646919</v>
       </c>
       <c r="K21">
-        <v>0.2217035684430293</v>
+        <v>0.1991257880726649</v>
       </c>
       <c r="L21">
-        <v>0.1691591763762545</v>
+        <v>0.1007639901064983</v>
       </c>
       <c r="M21">
-        <v>2.418189707462886</v>
+        <v>0.05464284315271328</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1668087081341625</v>
       </c>
       <c r="O21">
-        <v>0.704716748342733</v>
+        <v>2.385399090810978</v>
       </c>
       <c r="P21">
-        <v>0.8186640173966282</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.520043821303858</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.7033860452795651</v>
+      </c>
+      <c r="R21">
+        <v>0.8157198442350264</v>
+      </c>
+      <c r="S21">
+        <v>1.444915973398537</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4020757668591273</v>
+        <v>0.3853682572610637</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2746095593719531</v>
+        <v>0.283352900058901</v>
       </c>
       <c r="E22">
-        <v>0.1829207044999457</v>
+        <v>0.1838122262125097</v>
       </c>
       <c r="F22">
-        <v>0.8085149959069184</v>
+        <v>0.7655949543488134</v>
       </c>
       <c r="G22">
-        <v>0.4495342091296237</v>
+        <v>0.5655529583137024</v>
       </c>
       <c r="H22">
-        <v>0.003455057633278358</v>
+        <v>0.003209900035297086</v>
       </c>
       <c r="I22">
-        <v>0.002672224688960334</v>
+        <v>0.002185015826955627</v>
       </c>
       <c r="J22">
-        <v>0.3217005475256514</v>
+        <v>0.2177887332572581</v>
       </c>
       <c r="K22">
-        <v>0.2156930470101317</v>
+        <v>0.1934172142880293</v>
       </c>
       <c r="L22">
-        <v>0.1768131752962461</v>
+        <v>0.09950231530172315</v>
       </c>
       <c r="M22">
-        <v>2.584151599784605</v>
+        <v>0.05307322723666408</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1740917280324084</v>
       </c>
       <c r="O22">
-        <v>0.7544529988590867</v>
+        <v>2.529534972242715</v>
       </c>
       <c r="P22">
-        <v>0.8065512286858052</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.576534008286757</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.7499513951859313</v>
+      </c>
+      <c r="R22">
+        <v>0.8120779984569992</v>
+      </c>
+      <c r="S22">
+        <v>1.458560824463945</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3892345585375097</v>
+        <v>0.3727797478240689</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2665108872986508</v>
+        <v>0.2728169424913744</v>
       </c>
       <c r="E23">
-        <v>0.1782577402400243</v>
+        <v>0.1785730617444763</v>
       </c>
       <c r="F23">
-        <v>0.7918209977351296</v>
+        <v>0.7591996527848437</v>
       </c>
       <c r="G23">
-        <v>0.4394416435318931</v>
+        <v>0.5182034108521378</v>
       </c>
       <c r="H23">
-        <v>0.002877734078753025</v>
+        <v>0.002692094816731383</v>
       </c>
       <c r="I23">
-        <v>0.002694958414179993</v>
+        <v>0.002074827663372858</v>
       </c>
       <c r="J23">
-        <v>0.3186153088726371</v>
+        <v>0.2454893879082647</v>
       </c>
       <c r="K23">
-        <v>0.219231917847321</v>
+        <v>0.196735476605632</v>
       </c>
       <c r="L23">
-        <v>0.1728607169964462</v>
+        <v>0.1001843594309104</v>
       </c>
       <c r="M23">
-        <v>2.490908566321195</v>
+        <v>0.05407690359793982</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1703436873447757</v>
       </c>
       <c r="O23">
-        <v>0.7269327308792484</v>
+        <v>2.452492231681987</v>
       </c>
       <c r="P23">
-        <v>0.8118526016769323</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.54857109843195</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.7248596530929206</v>
+      </c>
+      <c r="R23">
+        <v>0.8119637638501516</v>
+      </c>
+      <c r="S23">
+        <v>1.459397548449118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3340624709832127</v>
+        <v>0.3216722941060652</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2360925351322152</v>
+        <v>0.2365246215964447</v>
       </c>
       <c r="E24">
-        <v>0.1605292773983464</v>
+        <v>0.1595982775543376</v>
       </c>
       <c r="F24">
-        <v>0.7285210906208661</v>
+        <v>0.722014044654486</v>
       </c>
       <c r="G24">
-        <v>0.4011320734434207</v>
+        <v>0.3946144055446297</v>
       </c>
       <c r="H24">
-        <v>0.001138564958038879</v>
+        <v>0.001096139184177725</v>
       </c>
       <c r="I24">
-        <v>0.00349138406584526</v>
+        <v>0.002413295010414984</v>
       </c>
       <c r="J24">
-        <v>0.3069633295527439</v>
+        <v>0.3293766093219546</v>
       </c>
       <c r="K24">
-        <v>0.2324941088156773</v>
+        <v>0.2090960114343543</v>
       </c>
       <c r="L24">
-        <v>0.1576570387588561</v>
+        <v>0.1035729532013224</v>
       </c>
       <c r="M24">
-        <v>2.146184973566903</v>
+        <v>0.05774800585592033</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1558715293263262</v>
       </c>
       <c r="O24">
-        <v>0.6245643695250749</v>
+        <v>2.143592202056965</v>
       </c>
       <c r="P24">
-        <v>0.8351536470010359</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.44254172958523</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.6275860958879065</v>
+      </c>
+      <c r="R24">
+        <v>0.8203622910090118</v>
+      </c>
+      <c r="S24">
+        <v>1.426573140696831</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2734079602481501</v>
+        <v>0.2699869987152681</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2035045166290388</v>
+        <v>0.2034081233475433</v>
       </c>
       <c r="E25">
-        <v>0.1414377710131021</v>
+        <v>0.1406961634519774</v>
       </c>
       <c r="F25">
-        <v>0.6629410521740908</v>
+        <v>0.6604542064677403</v>
       </c>
       <c r="G25">
-        <v>0.3619487925183336</v>
+        <v>0.3497446360990892</v>
       </c>
       <c r="H25">
-        <v>0.000127565939178842</v>
+        <v>0.0001242562296916994</v>
       </c>
       <c r="I25">
-        <v>0.004754401480388637</v>
+        <v>0.003113735041360144</v>
       </c>
       <c r="J25">
-        <v>0.2956962852190514</v>
+        <v>0.3260273563847917</v>
       </c>
       <c r="K25">
-        <v>0.2476803823001896</v>
+        <v>0.2224516971545616</v>
       </c>
       <c r="L25">
-        <v>0.141186645094642</v>
+        <v>0.1084805703904985</v>
       </c>
       <c r="M25">
-        <v>1.775625513611743</v>
+        <v>0.06229295709049842</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1399460523478595</v>
       </c>
       <c r="O25">
-        <v>0.5146115306681338</v>
+        <v>1.765888571910324</v>
       </c>
       <c r="P25">
-        <v>0.8630765070412352</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.335406159901993</v>
+        <v>0.5159273538068163</v>
+      </c>
+      <c r="R25">
+        <v>0.8410756014103171</v>
+      </c>
+      <c r="S25">
+        <v>1.330110969946247</v>
       </c>
     </row>
   </sheetData>
